--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_12_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_12_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1644269.229996325</v>
+        <v>1613977.415258265</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6249854.018845294</v>
+        <v>6249854.018845296</v>
       </c>
     </row>
     <row r="9">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
+        <v>10.00967878293136</v>
+      </c>
+      <c r="T2" t="n">
         <v>8.816525072005941</v>
-      </c>
-      <c r="T2" t="n">
-        <v>10.00967878293136</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>10.00967878293136</v>
+        <v>8.816525072005941</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.816525072005941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>8.816525072005941</v>
       </c>
       <c r="F4" t="n">
         <v>10.00967878293136</v>
@@ -834,55 +834,55 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>8.816525072005941</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>10.00967878293136</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>8.816525072005941</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>8.816525072005941</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1059,67 +1059,67 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
+        <v>8.816525072005941</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>8.816525072005941</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>10.00967878293136</v>
       </c>
       <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
         <v>8.816525072005941</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1220,64 +1220,64 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>8.816525072005941</v>
       </c>
       <c r="F9" t="n">
-        <v>8.816525072005941</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="H9" t="n">
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="I9" t="n">
+      <c r="X9" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>10.00967878293136</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>8.816525072005941</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.816525072005941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E11" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>37.50197958318233</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G11" t="n">
         <v>410.4417335069359</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>128.9833034214082</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>215.5437961396617</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>252.2163858692724</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>333.6094813630181</v>
@@ -1469,7 +1469,7 @@
         <v>91.18106602304464</v>
       </c>
       <c r="I12" t="n">
-        <v>40.04374360241829</v>
+        <v>40.04374360241827</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.316337030884135</v>
+        <v>9.316337030884121</v>
       </c>
       <c r="S12" t="n">
         <v>136.3520355124859</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C13" t="n">
         <v>167.9198098429365</v>
@@ -1539,19 +1539,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.5571585973424</v>
       </c>
       <c r="H13" t="n">
-        <v>151.7918468374337</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>122.51026349524</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.84781302200417</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>117.7483858916557</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>199.8372693753694</v>
       </c>
       <c r="T13" t="n">
-        <v>57.1565273599108</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1.513661194241872</v>
       </c>
     </row>
     <row r="14">
@@ -1609,25 +1609,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>410.0096787829314</v>
+        <v>15.35612128540922</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.4417335069359</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>314.1187622463967</v>
       </c>
       <c r="I14" t="n">
-        <v>71.48742173549697</v>
+        <v>113.2135059350945</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>378.2098390737216</v>
@@ -1706,7 +1706,7 @@
         <v>91.18106602304464</v>
       </c>
       <c r="I15" t="n">
-        <v>40.04374360241828</v>
+        <v>40.04374360241827</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.316337030884128</v>
+        <v>9.316337030884121</v>
       </c>
       <c r="S15" t="n">
         <v>136.3520355124859</v>
       </c>
       <c r="T15" t="n">
-        <v>183.5607130979405</v>
+        <v>183.5607130979404</v>
       </c>
       <c r="U15" t="n">
-        <v>216.2570010658497</v>
+        <v>216.2570010658492</v>
       </c>
       <c r="V15" t="n">
         <v>226.1116663261494</v>
@@ -1770,25 +1770,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>11.2787897295469</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>30.48442960363323</v>
+        <v>151.7918468374337</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>122.51026349524</v>
       </c>
       <c r="J16" t="n">
-        <v>11.84781302200416</v>
+        <v>11.84781302200415</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>199.8372693753694</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>284.2816066131464</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C17" t="n">
-        <v>66.58992577720053</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D17" t="n">
         <v>369.0957251250487</v>
@@ -1855,10 +1855,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>219.3681726013566</v>
       </c>
       <c r="G17" t="n">
-        <v>410.4417335069359</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>314.1187622463967</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>151.1477904266869</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>215.5437961396617</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>91.18106602304464</v>
       </c>
       <c r="I18" t="n">
-        <v>40.04374360241828</v>
+        <v>40.04374360241827</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.316337030884128</v>
+        <v>9.316337030884121</v>
       </c>
       <c r="S18" t="n">
         <v>136.3520355124859</v>
@@ -2004,25 +2004,25 @@
         <v>181.719814997536</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>51.48644083421634</v>
+        <v>166.5571585973424</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>151.7918468374337</v>
       </c>
       <c r="I19" t="n">
-        <v>122.51026349524</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>117.7483858916557</v>
       </c>
       <c r="S19" t="n">
-        <v>199.8372693753694</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>8.742538735398691</v>
       </c>
     </row>
     <row r="20">
@@ -2089,13 +2089,13 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E20" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.4417335069359</v>
+        <v>206.0116824350353</v>
       </c>
       <c r="H20" t="n">
         <v>314.1187622463967</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>151.1477904266869</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>215.5437961396617</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>252.2163858692724</v>
       </c>
       <c r="V20" t="n">
-        <v>54.33691469771173</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>91.18106602304464</v>
       </c>
       <c r="I21" t="n">
-        <v>40.04374360241828</v>
+        <v>40.04374360241827</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.316337030884128</v>
+        <v>9.316337030884121</v>
       </c>
       <c r="S21" t="n">
         <v>136.3520355124859</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>36.18377590060769</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>122.51026349524</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>106.7990420191385</v>
       </c>
       <c r="V22" t="n">
         <v>258.1279513971616</v>
@@ -2307,7 +2307,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="23">
@@ -2329,16 +2329,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G23" t="n">
         <v>410.4417335069359</v>
       </c>
       <c r="H23" t="n">
-        <v>314.1187622463967</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>113.2135059350945</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2377,13 +2377,13 @@
         <v>252.2163858692724</v>
       </c>
       <c r="V23" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>358.909580840975</v>
+        <v>357.9269658469576</v>
       </c>
       <c r="X23" t="n">
-        <v>26.29515331812622</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y23" t="n">
         <v>389.6064368699203</v>
@@ -2417,7 +2417,7 @@
         <v>91.18106602304464</v>
       </c>
       <c r="I24" t="n">
-        <v>40.04374360241828</v>
+        <v>40.04374360241827</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.316337030884128</v>
+        <v>9.316337030884121</v>
       </c>
       <c r="S24" t="n">
         <v>136.3520355124859</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>77.35424989212174</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.5571585973424</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>151.7918468374337</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>122.51026349524</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>199.8372693753694</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>227.9699409453102</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>284.2816066131464</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>43.30224114390544</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2560,22 +2560,22 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D26" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>62.76674921985423</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F26" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.4417335069359</v>
       </c>
       <c r="H26" t="n">
         <v>314.1187622463967</v>
       </c>
       <c r="I26" t="n">
-        <v>113.2135059350945</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>151.1477904266869</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>215.5437961396617</v>
       </c>
       <c r="U26" t="n">
-        <v>252.2163858692724</v>
+        <v>147.1605603740659</v>
       </c>
       <c r="V26" t="n">
         <v>333.6094813630181</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>149.4804077224668</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>150.9558484244806</v>
+        <v>120.7063375229419</v>
       </c>
       <c r="G28" t="n">
         <v>166.5571585973424</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>122.51026349524</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="29">
@@ -2794,13 +2794,13 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C29" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>41.3273154980595</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>410.4417335069359</v>
       </c>
       <c r="H29" t="n">
-        <v>314.1187622463967</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>113.2135059350945</v>
@@ -2860,7 +2860,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y29" t="n">
-        <v>389.6064368699203</v>
+        <v>363.2333478748939</v>
       </c>
     </row>
     <row r="30">
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>71.4349127138459</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>199.8372693753694</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9699409453102</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>284.2816066131464</v>
@@ -3012,13 +3012,13 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>126.7598092363108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D32" t="n">
         <v>369.0957251250487</v>
@@ -3043,10 +3043,10 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
-        <v>410.4417335069359</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>314.1187622463967</v>
+        <v>75.84963714990015</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>151.1477904266869</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>215.5437961396617</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>252.2163858692724</v>
       </c>
       <c r="V32" t="n">
-        <v>74.53129634747958</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W32" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y32" t="n">
         <v>389.6064368699203</v>
@@ -3192,25 +3192,25 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>151.7918468374337</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>122.51026349524</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>11.84781302200416</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>227.9699409453102</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>284.2816066131464</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>43.30224114390521</v>
       </c>
       <c r="Y34" t="n">
-        <v>129.8707665060203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3274,10 +3274,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>328.1799068291701</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>314.1187622463967</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>113.2135059350945</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3325,13 +3325,13 @@
         <v>252.2163858692724</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W35" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X35" t="n">
-        <v>378.2098390737216</v>
+        <v>240.394942516802</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>91.18106602304464</v>
       </c>
       <c r="I36" t="n">
-        <v>40.04374360241883</v>
+        <v>40.04374360241828</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,16 +3438,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.5571585973424</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>63.09674849927519</v>
+        <v>43.30224114390525</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>11.84781302200416</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>199.8372693753694</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>227.9699409453102</v>
       </c>
       <c r="U37" t="n">
         <v>284.2816066131464</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3508,22 +3508,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E38" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>358.2258924440298</v>
       </c>
       <c r="H38" t="n">
-        <v>134.1298797293715</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>113.2135059350945</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>151.1477904266869</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>252.2163858692724</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X38" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="39">
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C40" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>39.13279077283102</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>151.7918468374337</v>
       </c>
       <c r="I40" t="n">
-        <v>122.51026349524</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>199.8372693753694</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>227.9699409453102</v>
       </c>
       <c r="U40" t="n">
-        <v>284.2816066131464</v>
+        <v>252.2001373192437</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
-        <v>378.1144210805207</v>
+        <v>157.345320070184</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,13 +3751,13 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.4417335069359</v>
       </c>
       <c r="H41" t="n">
-        <v>314.1187622463967</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>235.3639768212523</v>
+        <v>252.2163858692724</v>
       </c>
       <c r="V41" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>378.2098390737216</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>97.65713914810212</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>106.7990420191381</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>227.9699409453102</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>284.2816066131464</v>
       </c>
       <c r="V43" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W43" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y43" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D44" t="n">
-        <v>165.9479395472691</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>410.0096787829314</v>
+        <v>332.8866074221013</v>
       </c>
       <c r="G44" t="n">
-        <v>410.4417335069359</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>314.1187622463967</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>113.2135059350945</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>151.1477904266869</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>252.2163858692724</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y44" t="n">
         <v>389.6064368699203</v>
@@ -4067,7 +4067,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F45" t="n">
-        <v>133.3468600696249</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
         <v>126.6379951172275</v>
@@ -4140,19 +4140,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>166.5571585973424</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>151.7918468374337</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>122.51026349524</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>199.8372693753694</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9699409453102</v>
+        <v>61.47226757057934</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y46" t="n">
-        <v>95.9386285981418</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4330,25 +4330,25 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="L2" t="n">
-        <v>10.71035629773655</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="M2" t="n">
         <v>20.6199382928386</v>
       </c>
       <c r="N2" t="n">
+        <v>20.6199382928386</v>
+      </c>
+      <c r="O2" t="n">
+        <v>20.6199382928386</v>
+      </c>
+      <c r="P2" t="n">
         <v>30.12913313662339</v>
-      </c>
-      <c r="O2" t="n">
-        <v>30.12913313662339</v>
-      </c>
-      <c r="P2" t="n">
-        <v>40.03871513172544</v>
       </c>
       <c r="Q2" t="n">
         <v>40.03871513172544</v>
@@ -4357,7 +4357,7 @@
         <v>40.03871513172544</v>
       </c>
       <c r="S2" t="n">
-        <v>31.13313425091136</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="T2" t="n">
         <v>21.02234760148574</v>
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8007743026345088</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8007743026345088</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8007743026345088</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8007743026345088</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="I3" t="n">
         <v>0.8007743026345088</v>
@@ -4421,40 +4421,40 @@
         <v>10.3099691464193</v>
       </c>
       <c r="N3" t="n">
-        <v>10.3099691464193</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="O3" t="n">
-        <v>20.21955114152135</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="P3" t="n">
-        <v>30.12913313662339</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="Q3" t="n">
         <v>40.03871513172544</v>
       </c>
       <c r="R3" t="n">
-        <v>29.92792848229982</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="S3" t="n">
-        <v>29.92792848229982</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="T3" t="n">
-        <v>19.81714183287421</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="U3" t="n">
-        <v>19.81714183287421</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="V3" t="n">
-        <v>19.81714183287421</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="W3" t="n">
-        <v>19.81714183287421</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="X3" t="n">
-        <v>19.81714183287421</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.91156095206012</v>
+        <v>31.13313425091136</v>
       </c>
     </row>
     <row r="4">
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="C4" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="D4" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="E4" t="n">
         <v>21.02234760148574</v>
@@ -4482,28 +4482,28 @@
         <v>10.91156095206012</v>
       </c>
       <c r="H4" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="I4" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="J4" t="n">
         <v>0.8007743026345088</v>
       </c>
       <c r="K4" t="n">
-        <v>10.71035629773655</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="L4" t="n">
-        <v>20.6199382928386</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="M4" t="n">
-        <v>30.52952028794065</v>
+        <v>10.3099691464193</v>
       </c>
       <c r="N4" t="n">
-        <v>30.52952028794065</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="O4" t="n">
-        <v>40.03871513172544</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="P4" t="n">
         <v>40.03871513172544</v>
@@ -4515,25 +4515,25 @@
         <v>40.03871513172544</v>
       </c>
       <c r="S4" t="n">
+        <v>40.03871513172544</v>
+      </c>
+      <c r="T4" t="n">
+        <v>40.03871513172544</v>
+      </c>
+      <c r="U4" t="n">
+        <v>40.03871513172544</v>
+      </c>
+      <c r="V4" t="n">
+        <v>40.03871513172544</v>
+      </c>
+      <c r="W4" t="n">
+        <v>40.03871513172544</v>
+      </c>
+      <c r="X4" t="n">
         <v>29.92792848229982</v>
       </c>
-      <c r="T4" t="n">
+      <c r="Y4" t="n">
         <v>29.92792848229982</v>
-      </c>
-      <c r="U4" t="n">
-        <v>29.92792848229982</v>
-      </c>
-      <c r="V4" t="n">
-        <v>29.92792848229982</v>
-      </c>
-      <c r="W4" t="n">
-        <v>29.92792848229982</v>
-      </c>
-      <c r="X4" t="n">
-        <v>21.02234760148574</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>21.02234760148574</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="C5" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="D5" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="E5" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="F5" t="n">
-        <v>10.91156095206012</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8007743026345088</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="H5" t="n">
         <v>0.8007743026345088</v>
@@ -4567,52 +4567,52 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="K5" t="n">
-        <v>10.3099691464193</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="L5" t="n">
-        <v>20.21955114152135</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="M5" t="n">
         <v>30.12913313662339</v>
       </c>
       <c r="N5" t="n">
-        <v>40.03871513172544</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="O5" t="n">
-        <v>40.03871513172544</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="P5" t="n">
-        <v>40.03871513172544</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="Q5" t="n">
         <v>40.03871513172544</v>
       </c>
       <c r="R5" t="n">
-        <v>31.13313425091136</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="S5" t="n">
-        <v>31.13313425091136</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="T5" t="n">
-        <v>31.13313425091136</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="U5" t="n">
-        <v>31.13313425091136</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="V5" t="n">
-        <v>31.13313425091136</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="W5" t="n">
-        <v>31.13313425091136</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="X5" t="n">
-        <v>31.13313425091136</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="Y5" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8007743026345088</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8007743026345088</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8007743026345088</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8007743026345088</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8007743026345088</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8007743026345088</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="I6" t="n">
         <v>0.8007743026345088</v>
@@ -4652,46 +4652,46 @@
         <v>10.71035629773655</v>
       </c>
       <c r="L6" t="n">
-        <v>20.21955114152135</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="M6" t="n">
-        <v>20.21955114152135</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="N6" t="n">
+        <v>10.71035629773655</v>
+      </c>
+      <c r="O6" t="n">
+        <v>20.6199382928386</v>
+      </c>
+      <c r="P6" t="n">
         <v>30.12913313662339</v>
-      </c>
-      <c r="O6" t="n">
-        <v>40.03871513172544</v>
-      </c>
-      <c r="P6" t="n">
-        <v>40.03871513172544</v>
       </c>
       <c r="Q6" t="n">
         <v>40.03871513172544</v>
       </c>
       <c r="R6" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="S6" t="n">
-        <v>19.81714183287421</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="T6" t="n">
-        <v>19.81714183287421</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="U6" t="n">
-        <v>10.91156095206012</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="V6" t="n">
-        <v>10.91156095206012</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="W6" t="n">
-        <v>0.8007743026345088</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="X6" t="n">
-        <v>0.8007743026345088</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.8007743026345088</v>
+        <v>31.13313425091136</v>
       </c>
     </row>
     <row r="7">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>29.92792848229982</v>
+      </c>
+      <c r="C7" t="n">
+        <v>29.92792848229982</v>
+      </c>
+      <c r="D7" t="n">
         <v>21.02234760148574</v>
       </c>
-      <c r="C7" t="n">
+      <c r="E7" t="n">
         <v>21.02234760148574</v>
-      </c>
-      <c r="D7" t="n">
-        <v>10.91156095206012</v>
-      </c>
-      <c r="E7" t="n">
-        <v>10.91156095206012</v>
       </c>
       <c r="F7" t="n">
         <v>10.91156095206012</v>
@@ -4719,22 +4719,22 @@
         <v>10.91156095206012</v>
       </c>
       <c r="H7" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="I7" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="J7" t="n">
         <v>0.8007743026345088</v>
       </c>
       <c r="K7" t="n">
-        <v>10.71035629773655</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="L7" t="n">
-        <v>10.71035629773655</v>
+        <v>10.3099691464193</v>
       </c>
       <c r="M7" t="n">
-        <v>10.71035629773655</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="N7" t="n">
         <v>20.21955114152135</v>
@@ -4746,19 +4746,19 @@
         <v>40.03871513172544</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="R7" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="S7" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="T7" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="U7" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="V7" t="n">
         <v>29.92792848229982</v>
@@ -4767,10 +4767,10 @@
         <v>29.92792848229982</v>
       </c>
       <c r="X7" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
     </row>
     <row r="8">
@@ -4807,22 +4807,22 @@
         <v>10.71035629773655</v>
       </c>
       <c r="K8" t="n">
-        <v>20.21955114152135</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="L8" t="n">
-        <v>20.21955114152135</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="M8" t="n">
         <v>30.12913313662339</v>
       </c>
       <c r="N8" t="n">
-        <v>40.03871513172544</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="O8" t="n">
-        <v>40.03871513172544</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="P8" t="n">
-        <v>40.03871513172544</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="Q8" t="n">
         <v>40.03871513172544</v>
@@ -4831,7 +4831,7 @@
         <v>29.92792848229982</v>
       </c>
       <c r="S8" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="T8" t="n">
         <v>21.02234760148574</v>
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>40.03871513172544</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="C9" t="n">
-        <v>40.03871513172544</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="D9" t="n">
-        <v>40.03871513172544</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="E9" t="n">
-        <v>40.03871513172544</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="F9" t="n">
-        <v>31.13313425091136</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="G9" t="n">
-        <v>21.02234760148574</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="H9" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="I9" t="n">
         <v>0.8007743026345088</v>
@@ -4895,13 +4895,13 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="N9" t="n">
-        <v>10.3099691464193</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="O9" t="n">
-        <v>20.21955114152135</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="P9" t="n">
-        <v>30.12913313662339</v>
+        <v>30.52952028794065</v>
       </c>
       <c r="Q9" t="n">
         <v>40.03871513172544</v>
@@ -4916,19 +4916,19 @@
         <v>40.03871513172544</v>
       </c>
       <c r="U9" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="V9" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="W9" t="n">
-        <v>40.03871513172544</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="X9" t="n">
-        <v>40.03871513172544</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="Y9" t="n">
-        <v>40.03871513172544</v>
+        <v>9.70635518344859</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>21.02234760148574</v>
+      </c>
+      <c r="C10" t="n">
         <v>10.91156095206012</v>
       </c>
-      <c r="C10" t="n">
-        <v>0.8007743026345088</v>
-      </c>
       <c r="D10" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="G10" t="n">
         <v>0.8007743026345088</v>
@@ -4965,19 +4965,19 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8007743026345088</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="M10" t="n">
-        <v>10.71035629773655</v>
+        <v>30.52952028794065</v>
       </c>
       <c r="N10" t="n">
-        <v>20.6199382928386</v>
+        <v>30.52952028794065</v>
       </c>
       <c r="O10" t="n">
-        <v>30.52952028794065</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="P10" t="n">
         <v>40.03871513172544</v>
@@ -4992,19 +4992,19 @@
         <v>29.92792848229982</v>
       </c>
       <c r="T10" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="U10" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="V10" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="W10" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="X10" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="Y10" t="n">
         <v>21.02234760148574</v>
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>896.5050739556666</v>
+        <v>1763.033645805942</v>
       </c>
       <c r="C11" t="n">
-        <v>896.5050739556666</v>
+        <v>1381.099887138749</v>
       </c>
       <c r="D11" t="n">
-        <v>896.5050739556666</v>
+        <v>1008.275922365973</v>
       </c>
       <c r="E11" t="n">
-        <v>501.7193540617735</v>
+        <v>1008.275922365973</v>
       </c>
       <c r="F11" t="n">
-        <v>463.8385666040135</v>
+        <v>594.124731676143</v>
       </c>
       <c r="G11" t="n">
-        <v>49.250957001048</v>
+        <v>179.5371220731775</v>
       </c>
       <c r="H11" t="n">
-        <v>49.250957001048</v>
+        <v>49.25095700104799</v>
       </c>
       <c r="I11" t="n">
-        <v>49.250957001048</v>
+        <v>49.25095700104799</v>
       </c>
       <c r="J11" t="n">
-        <v>247.3889569354657</v>
+        <v>49.25095700104799</v>
       </c>
       <c r="K11" t="n">
-        <v>676.5796747363366</v>
+        <v>478.441674801919</v>
       </c>
       <c r="L11" t="n">
-        <v>1258.998718706802</v>
+        <v>1060.860718772385</v>
       </c>
       <c r="M11" t="n">
-        <v>1334.677866015179</v>
+        <v>1136.539866080761</v>
       </c>
       <c r="N11" t="n">
-        <v>1415.330300354919</v>
+        <v>1465.260645816072</v>
       </c>
       <c r="O11" t="n">
-        <v>1765.748139624241</v>
+        <v>2020.673386050911</v>
       </c>
       <c r="P11" t="n">
-        <v>2207.622603625729</v>
+        <v>2462.5478500524</v>
       </c>
       <c r="Q11" t="n">
         <v>2462.5478500524</v>
@@ -5071,22 +5071,22 @@
         <v>2462.5478500524</v>
       </c>
       <c r="T11" t="n">
-        <v>2244.826843850722</v>
+        <v>2462.5478500524</v>
       </c>
       <c r="U11" t="n">
-        <v>1990.062817720143</v>
+        <v>2462.5478500524</v>
       </c>
       <c r="V11" t="n">
-        <v>1653.083543616085</v>
+        <v>2125.568575948341</v>
       </c>
       <c r="W11" t="n">
-        <v>1290.548613473686</v>
+        <v>1763.033645805942</v>
       </c>
       <c r="X11" t="n">
-        <v>1290.548613473686</v>
+        <v>1763.033645805942</v>
       </c>
       <c r="Y11" t="n">
-        <v>1290.548613473686</v>
+        <v>1763.033645805942</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>891.982554301207</v>
+        <v>891.9825543012067</v>
       </c>
       <c r="C12" t="n">
-        <v>730.2788815421618</v>
+        <v>730.2788815421615</v>
       </c>
       <c r="D12" t="n">
-        <v>591.440244532374</v>
+        <v>591.4402445323735</v>
       </c>
       <c r="E12" t="n">
-        <v>444.4122345892451</v>
+        <v>444.4122345892448</v>
       </c>
       <c r="F12" t="n">
-        <v>309.7184365391195</v>
+        <v>309.7184365391191</v>
       </c>
       <c r="G12" t="n">
-        <v>181.8012697540412</v>
+        <v>181.8012697540408</v>
       </c>
       <c r="H12" t="n">
-        <v>89.69918286207658</v>
+        <v>89.69918286207655</v>
       </c>
       <c r="I12" t="n">
-        <v>49.250957001048</v>
+        <v>49.25095700104799</v>
       </c>
       <c r="J12" t="n">
-        <v>184.6328991844291</v>
+        <v>184.6328991844292</v>
       </c>
       <c r="K12" t="n">
         <v>542.5288206901716</v>
       </c>
       <c r="L12" t="n">
-        <v>1081.007530614331</v>
+        <v>603.7360062087795</v>
       </c>
       <c r="M12" t="n">
-        <v>1690.4881235023</v>
+        <v>1213.216599096748</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.968716390269</v>
+        <v>1314.383666970271</v>
       </c>
       <c r="O12" t="n">
-        <v>2374.463235304612</v>
+        <v>1749.329326958924</v>
       </c>
       <c r="P12" t="n">
-        <v>2418.543537963507</v>
+        <v>2203.271212857419</v>
       </c>
       <c r="Q12" t="n">
         <v>2462.5478500524</v>
@@ -5147,19 +5147,19 @@
         <v>2453.137408607062</v>
       </c>
       <c r="S12" t="n">
-        <v>2315.408079806572</v>
+        <v>2315.408079806571</v>
       </c>
       <c r="T12" t="n">
         <v>2129.99321809148</v>
       </c>
       <c r="U12" t="n">
-        <v>1911.551802873451</v>
+        <v>1911.55180287345</v>
       </c>
       <c r="V12" t="n">
-        <v>1683.156180321785</v>
+        <v>1683.156180321784</v>
       </c>
       <c r="W12" t="n">
-        <v>1441.840311555095</v>
+        <v>1441.840311555094</v>
       </c>
       <c r="X12" t="n">
         <v>1243.923323432889</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>980.6364765118883</v>
+        <v>539.1154949167786</v>
       </c>
       <c r="C13" t="n">
-        <v>811.0205069735686</v>
+        <v>369.4995253784589</v>
       </c>
       <c r="D13" t="n">
-        <v>811.0205069735686</v>
+        <v>369.4995253784589</v>
       </c>
       <c r="E13" t="n">
-        <v>659.0114927348874</v>
+        <v>217.4905111397777</v>
       </c>
       <c r="F13" t="n">
-        <v>506.5308377606645</v>
+        <v>217.4905111397777</v>
       </c>
       <c r="G13" t="n">
-        <v>338.2912836219348</v>
+        <v>49.25095700104799</v>
       </c>
       <c r="H13" t="n">
-        <v>184.9661858063452</v>
+        <v>49.25095700104799</v>
       </c>
       <c r="I13" t="n">
-        <v>61.21844490206232</v>
+        <v>49.25095700104799</v>
       </c>
       <c r="J13" t="n">
-        <v>49.250957001048</v>
+        <v>49.25095700104799</v>
       </c>
       <c r="K13" t="n">
         <v>160.3087556725587</v>
@@ -5208,13 +5208,13 @@
         <v>360.0297907142883</v>
       </c>
       <c r="M13" t="n">
-        <v>582.525066263797</v>
+        <v>582.5250662637972</v>
       </c>
       <c r="N13" t="n">
-        <v>802.964358931391</v>
+        <v>802.9643589313911</v>
       </c>
       <c r="O13" t="n">
-        <v>995.6571715218329</v>
+        <v>995.657171521833</v>
       </c>
       <c r="P13" t="n">
         <v>1139.254985435498</v>
@@ -5223,28 +5223,28 @@
         <v>1157.308106058925</v>
       </c>
       <c r="R13" t="n">
-        <v>1038.370342532</v>
+        <v>1157.308106058925</v>
       </c>
       <c r="S13" t="n">
-        <v>1038.370342532</v>
+        <v>955.4522784070371</v>
       </c>
       <c r="T13" t="n">
-        <v>980.6364765118883</v>
+        <v>955.4522784070371</v>
       </c>
       <c r="U13" t="n">
-        <v>980.6364765118883</v>
+        <v>955.4522784070371</v>
       </c>
       <c r="V13" t="n">
-        <v>980.6364765118883</v>
+        <v>955.4522784070371</v>
       </c>
       <c r="W13" t="n">
-        <v>980.6364765118883</v>
+        <v>955.4522784070371</v>
       </c>
       <c r="X13" t="n">
-        <v>980.6364765118883</v>
+        <v>724.1998143024128</v>
       </c>
       <c r="Y13" t="n">
-        <v>980.6364765118883</v>
+        <v>722.6708636011584</v>
       </c>
     </row>
     <row r="14">
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>930.3973844893133</v>
+        <v>1292.932314631712</v>
       </c>
       <c r="C14" t="n">
-        <v>930.3973844893133</v>
+        <v>910.998555964519</v>
       </c>
       <c r="D14" t="n">
-        <v>930.3973844893133</v>
+        <v>910.998555964519</v>
       </c>
       <c r="E14" t="n">
-        <v>535.6116645954201</v>
+        <v>910.998555964519</v>
       </c>
       <c r="F14" t="n">
-        <v>121.4604739055904</v>
+        <v>895.4873223428935</v>
       </c>
       <c r="G14" t="n">
-        <v>121.4604739055904</v>
+        <v>480.899712739928</v>
       </c>
       <c r="H14" t="n">
-        <v>121.4604739055904</v>
+        <v>163.6080337031636</v>
       </c>
       <c r="I14" t="n">
-        <v>49.250957001048</v>
+        <v>49.25095700104799</v>
       </c>
       <c r="J14" t="n">
-        <v>247.3889569354657</v>
+        <v>49.25095700104799</v>
       </c>
       <c r="K14" t="n">
-        <v>259.4045287572476</v>
+        <v>478.441674801919</v>
       </c>
       <c r="L14" t="n">
-        <v>841.8235727277133</v>
+        <v>1060.860718772385</v>
       </c>
       <c r="M14" t="n">
-        <v>917.5027200360898</v>
+        <v>1380.085219894375</v>
       </c>
       <c r="N14" t="n">
-        <v>1526.983312924059</v>
+        <v>1460.737654234115</v>
       </c>
       <c r="O14" t="n">
-        <v>2082.396053158897</v>
+        <v>2016.150394468954</v>
       </c>
       <c r="P14" t="n">
-        <v>2458.024858470443</v>
+        <v>2458.024858470442</v>
       </c>
       <c r="Q14" t="n">
-        <v>2458.024858470443</v>
+        <v>2458.024858470442</v>
       </c>
       <c r="R14" t="n">
         <v>2462.5478500524</v>
@@ -5317,13 +5317,13 @@
         <v>2462.5478500524</v>
       </c>
       <c r="W14" t="n">
-        <v>2100.012919910001</v>
+        <v>2462.5478500524</v>
       </c>
       <c r="X14" t="n">
-        <v>1717.982779431494</v>
+        <v>2080.517709573893</v>
       </c>
       <c r="Y14" t="n">
-        <v>1324.440924007332</v>
+        <v>1686.975854149731</v>
       </c>
     </row>
     <row r="15">
@@ -5333,43 +5333,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>891.9825543012067</v>
+        <v>891.982554301207</v>
       </c>
       <c r="C15" t="n">
-        <v>730.2788815421615</v>
+        <v>730.2788815421618</v>
       </c>
       <c r="D15" t="n">
-        <v>591.4402445323735</v>
+        <v>591.4402445323738</v>
       </c>
       <c r="E15" t="n">
-        <v>444.4122345892448</v>
+        <v>444.4122345892449</v>
       </c>
       <c r="F15" t="n">
-        <v>309.7184365391191</v>
+        <v>309.7184365391192</v>
       </c>
       <c r="G15" t="n">
         <v>181.8012697540408</v>
       </c>
       <c r="H15" t="n">
-        <v>89.69918286207657</v>
+        <v>89.69918286207655</v>
       </c>
       <c r="I15" t="n">
-        <v>49.250957001048</v>
+        <v>49.25095700104799</v>
       </c>
       <c r="J15" t="n">
-        <v>49.250957001048</v>
+        <v>184.6328991844292</v>
       </c>
       <c r="K15" t="n">
-        <v>66.78011847160182</v>
+        <v>542.5288206901716</v>
       </c>
       <c r="L15" t="n">
-        <v>127.9873039902096</v>
+        <v>1081.007530614331</v>
       </c>
       <c r="M15" t="n">
-        <v>737.4678968781786</v>
+        <v>1168.160884548081</v>
       </c>
       <c r="N15" t="n">
-        <v>1167.934003135431</v>
+        <v>1269.327952421604</v>
       </c>
       <c r="O15" t="n">
         <v>1749.329326958924</v>
@@ -5384,7 +5384,7 @@
         <v>2453.137408607062</v>
       </c>
       <c r="S15" t="n">
-        <v>2315.408079806572</v>
+        <v>2315.408079806571</v>
       </c>
       <c r="T15" t="n">
         <v>2129.99321809148</v>
@@ -5396,7 +5396,7 @@
         <v>1683.156180321784</v>
       </c>
       <c r="W15" t="n">
-        <v>1441.840311555094</v>
+        <v>1441.840311555095</v>
       </c>
       <c r="X15" t="n">
         <v>1243.923323432889</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>92.01079803704536</v>
+        <v>502.1646554946899</v>
       </c>
       <c r="C16" t="n">
-        <v>92.01079803704536</v>
+        <v>502.1646554946899</v>
       </c>
       <c r="D16" t="n">
-        <v>92.01079803704536</v>
+        <v>490.7719385961577</v>
       </c>
       <c r="E16" t="n">
-        <v>92.01079803704536</v>
+        <v>490.7719385961577</v>
       </c>
       <c r="F16" t="n">
-        <v>92.01079803704536</v>
+        <v>338.2912836219348</v>
       </c>
       <c r="G16" t="n">
-        <v>92.01079803704536</v>
+        <v>338.2912836219348</v>
       </c>
       <c r="H16" t="n">
-        <v>61.2184449020623</v>
+        <v>184.9661858063452</v>
       </c>
       <c r="I16" t="n">
-        <v>61.2184449020623</v>
+        <v>61.21844490206229</v>
       </c>
       <c r="J16" t="n">
-        <v>49.250957001048</v>
+        <v>49.25095700104799</v>
       </c>
       <c r="K16" t="n">
         <v>160.3087556725587</v>
@@ -5445,13 +5445,13 @@
         <v>360.0297907142883</v>
       </c>
       <c r="M16" t="n">
-        <v>582.525066263797</v>
+        <v>582.5250662637972</v>
       </c>
       <c r="N16" t="n">
-        <v>802.964358931391</v>
+        <v>802.9643589313911</v>
       </c>
       <c r="O16" t="n">
-        <v>995.6571715218329</v>
+        <v>995.657171521833</v>
       </c>
       <c r="P16" t="n">
         <v>1139.254985435498</v>
@@ -5463,25 +5463,25 @@
         <v>1157.308106058925</v>
       </c>
       <c r="S16" t="n">
-        <v>1157.308106058925</v>
+        <v>955.4522784070371</v>
       </c>
       <c r="T16" t="n">
-        <v>1157.308106058925</v>
+        <v>955.4522784070371</v>
       </c>
       <c r="U16" t="n">
-        <v>870.1549680658479</v>
+        <v>955.4522784070371</v>
       </c>
       <c r="V16" t="n">
-        <v>609.4196636242705</v>
+        <v>955.4522784070371</v>
       </c>
       <c r="W16" t="n">
-        <v>323.2632621416696</v>
+        <v>955.4522784070371</v>
       </c>
       <c r="X16" t="n">
-        <v>92.01079803704536</v>
+        <v>724.1998143024128</v>
       </c>
       <c r="Y16" t="n">
-        <v>92.01079803704536</v>
+        <v>502.1646554946899</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1335.573838405772</v>
+        <v>1457.24144890854</v>
       </c>
       <c r="C17" t="n">
-        <v>1268.31128711567</v>
+        <v>1075.307690241347</v>
       </c>
       <c r="D17" t="n">
-        <v>895.4873223428935</v>
+        <v>702.483725468571</v>
       </c>
       <c r="E17" t="n">
-        <v>895.4873223428935</v>
+        <v>702.483725468571</v>
       </c>
       <c r="F17" t="n">
-        <v>895.4873223428935</v>
+        <v>480.899712739928</v>
       </c>
       <c r="G17" t="n">
-        <v>480.8997127399281</v>
+        <v>480.899712739928</v>
       </c>
       <c r="H17" t="n">
-        <v>163.6080337031637</v>
+        <v>163.6080337031636</v>
       </c>
       <c r="I17" t="n">
-        <v>49.250957001048</v>
+        <v>49.25095700104799</v>
       </c>
       <c r="J17" t="n">
-        <v>49.250957001048</v>
+        <v>247.3889569354658</v>
       </c>
       <c r="K17" t="n">
-        <v>478.4416748019189</v>
+        <v>676.5796747363368</v>
       </c>
       <c r="L17" t="n">
-        <v>1060.860718772385</v>
+        <v>1258.998718706802</v>
       </c>
       <c r="M17" t="n">
-        <v>1670.341311660354</v>
+        <v>1505.099577203284</v>
       </c>
       <c r="N17" t="n">
-        <v>1879.415583232771</v>
+        <v>2114.580170091253</v>
       </c>
       <c r="O17" t="n">
-        <v>2434.82832346761</v>
+        <v>2179.903077040939</v>
       </c>
       <c r="P17" t="n">
-        <v>2462.5478500524</v>
+        <v>2207.622603625729</v>
       </c>
       <c r="Q17" t="n">
         <v>2462.5478500524</v>
@@ -5542,25 +5542,25 @@
         <v>2462.5478500524</v>
       </c>
       <c r="S17" t="n">
-        <v>2309.873314267868</v>
+        <v>2462.5478500524</v>
       </c>
       <c r="T17" t="n">
-        <v>2092.15230806619</v>
+        <v>2244.826843850721</v>
       </c>
       <c r="U17" t="n">
-        <v>2092.15230806619</v>
+        <v>2244.826843850721</v>
       </c>
       <c r="V17" t="n">
-        <v>2092.15230806619</v>
+        <v>2244.826843850721</v>
       </c>
       <c r="W17" t="n">
-        <v>1729.617377923791</v>
+        <v>2244.826843850721</v>
       </c>
       <c r="X17" t="n">
-        <v>1729.617377923791</v>
+        <v>2244.826843850721</v>
       </c>
       <c r="Y17" t="n">
-        <v>1729.617377923791</v>
+        <v>1851.284988426559</v>
       </c>
     </row>
     <row r="18">
@@ -5588,25 +5588,25 @@
         <v>181.8012697540408</v>
       </c>
       <c r="H18" t="n">
-        <v>89.69918286207657</v>
+        <v>89.69918286207655</v>
       </c>
       <c r="I18" t="n">
-        <v>49.250957001048</v>
+        <v>49.25095700104799</v>
       </c>
       <c r="J18" t="n">
-        <v>49.250957001048</v>
+        <v>184.6328991844292</v>
       </c>
       <c r="K18" t="n">
-        <v>407.1468785067905</v>
+        <v>542.5288206901716</v>
       </c>
       <c r="L18" t="n">
-        <v>945.6255884309503</v>
+        <v>979.6135813281586</v>
       </c>
       <c r="M18" t="n">
-        <v>1555.106181318919</v>
+        <v>1066.766935261908</v>
       </c>
       <c r="N18" t="n">
-        <v>1674.834808044582</v>
+        <v>1167.934003135431</v>
       </c>
       <c r="O18" t="n">
         <v>1749.329326958924</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>225.0052037984787</v>
+        <v>845.9841266401472</v>
       </c>
       <c r="C19" t="n">
-        <v>225.0052037984787</v>
+        <v>676.3681571018275</v>
       </c>
       <c r="D19" t="n">
-        <v>225.0052037984787</v>
+        <v>523.2962639295902</v>
       </c>
       <c r="E19" t="n">
-        <v>225.0052037984787</v>
+        <v>523.2962639295902</v>
       </c>
       <c r="F19" t="n">
-        <v>225.0052037984787</v>
+        <v>370.8156089553673</v>
       </c>
       <c r="G19" t="n">
-        <v>172.9986979053309</v>
+        <v>202.5760548166376</v>
       </c>
       <c r="H19" t="n">
-        <v>172.9986979053309</v>
+        <v>49.25095700104799</v>
       </c>
       <c r="I19" t="n">
-        <v>49.250957001048</v>
+        <v>49.25095700104799</v>
       </c>
       <c r="J19" t="n">
-        <v>49.250957001048</v>
+        <v>49.25095700104799</v>
       </c>
       <c r="K19" t="n">
         <v>160.3087556725587</v>
@@ -5682,13 +5682,13 @@
         <v>360.0297907142883</v>
       </c>
       <c r="M19" t="n">
-        <v>582.525066263797</v>
+        <v>582.5250662637972</v>
       </c>
       <c r="N19" t="n">
-        <v>802.964358931391</v>
+        <v>802.9643589313911</v>
       </c>
       <c r="O19" t="n">
-        <v>995.6571715218329</v>
+        <v>995.657171521833</v>
       </c>
       <c r="P19" t="n">
         <v>1139.254985435498</v>
@@ -5697,28 +5697,28 @@
         <v>1157.308106058925</v>
       </c>
       <c r="R19" t="n">
-        <v>1157.308106058925</v>
+        <v>1038.370342532</v>
       </c>
       <c r="S19" t="n">
-        <v>955.4522784070368</v>
+        <v>1038.370342532</v>
       </c>
       <c r="T19" t="n">
-        <v>955.4522784070368</v>
+        <v>1038.370342532</v>
       </c>
       <c r="U19" t="n">
-        <v>955.4522784070368</v>
+        <v>1038.370342532</v>
       </c>
       <c r="V19" t="n">
-        <v>694.7169739654594</v>
+        <v>1038.370342532</v>
       </c>
       <c r="W19" t="n">
-        <v>408.5605724828585</v>
+        <v>1038.370342532</v>
       </c>
       <c r="X19" t="n">
-        <v>408.5605724828585</v>
+        <v>1038.370342532</v>
       </c>
       <c r="Y19" t="n">
-        <v>408.5605724828585</v>
+        <v>1029.539495324527</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1663.097007009563</v>
+        <v>1061.816286032942</v>
       </c>
       <c r="C20" t="n">
-        <v>1663.097007009563</v>
+        <v>1061.816286032942</v>
       </c>
       <c r="D20" t="n">
-        <v>1290.273042236787</v>
+        <v>688.9923212601657</v>
       </c>
       <c r="E20" t="n">
-        <v>895.4873223428935</v>
+        <v>688.9923212601657</v>
       </c>
       <c r="F20" t="n">
-        <v>895.4873223428935</v>
+        <v>688.9923212601657</v>
       </c>
       <c r="G20" t="n">
-        <v>480.8997127399281</v>
+        <v>480.899712739928</v>
       </c>
       <c r="H20" t="n">
-        <v>163.6080337031637</v>
+        <v>163.6080337031636</v>
       </c>
       <c r="I20" t="n">
-        <v>49.250957001048</v>
+        <v>49.25095700104799</v>
       </c>
       <c r="J20" t="n">
-        <v>247.3889569354657</v>
+        <v>247.3889569354658</v>
       </c>
       <c r="K20" t="n">
-        <v>259.4045287572476</v>
+        <v>676.5796747363368</v>
       </c>
       <c r="L20" t="n">
-        <v>841.8235727277133</v>
+        <v>721.4687355803727</v>
       </c>
       <c r="M20" t="n">
-        <v>917.5027200360898</v>
+        <v>797.1478828887492</v>
       </c>
       <c r="N20" t="n">
-        <v>1526.983312924059</v>
+        <v>1210.335399389402</v>
       </c>
       <c r="O20" t="n">
-        <v>2020.673386050911</v>
+        <v>1765.74813962424</v>
       </c>
       <c r="P20" t="n">
-        <v>2462.5478500524</v>
+        <v>2207.622603625729</v>
       </c>
       <c r="Q20" t="n">
         <v>2462.5478500524</v>
@@ -5779,25 +5779,25 @@
         <v>2462.5478500524</v>
       </c>
       <c r="S20" t="n">
-        <v>2462.5478500524</v>
+        <v>2309.873314267867</v>
       </c>
       <c r="T20" t="n">
-        <v>2462.5478500524</v>
+        <v>2092.152308066189</v>
       </c>
       <c r="U20" t="n">
-        <v>2462.5478500524</v>
+        <v>1837.388281935611</v>
       </c>
       <c r="V20" t="n">
-        <v>2407.662077630469</v>
+        <v>1837.388281935611</v>
       </c>
       <c r="W20" t="n">
-        <v>2045.12714748807</v>
+        <v>1837.388281935611</v>
       </c>
       <c r="X20" t="n">
-        <v>1663.097007009563</v>
+        <v>1455.358141457104</v>
       </c>
       <c r="Y20" t="n">
-        <v>1663.097007009563</v>
+        <v>1061.816286032942</v>
       </c>
     </row>
     <row r="21">
@@ -5825,31 +5825,31 @@
         <v>181.8012697540408</v>
       </c>
       <c r="H21" t="n">
-        <v>89.69918286207657</v>
+        <v>89.69918286207655</v>
       </c>
       <c r="I21" t="n">
-        <v>49.250957001048</v>
+        <v>49.25095700104799</v>
       </c>
       <c r="J21" t="n">
-        <v>49.250957001048</v>
+        <v>184.6328991844292</v>
       </c>
       <c r="K21" t="n">
-        <v>66.78011847160182</v>
+        <v>542.5288206901716</v>
       </c>
       <c r="L21" t="n">
-        <v>605.2588283957616</v>
+        <v>1081.007530614331</v>
       </c>
       <c r="M21" t="n">
-        <v>817.7300474424429</v>
+        <v>1168.160884548081</v>
       </c>
       <c r="N21" t="n">
-        <v>1427.210640330412</v>
+        <v>1269.327952421604</v>
       </c>
       <c r="O21" t="n">
-        <v>2008.605964153905</v>
+        <v>1749.329326958924</v>
       </c>
       <c r="P21" t="n">
-        <v>2462.5478500524</v>
+        <v>2203.271212857419</v>
       </c>
       <c r="Q21" t="n">
         <v>2462.5478500524</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1647.854411437125</v>
+        <v>49.25095700104799</v>
       </c>
       <c r="C22" t="n">
-        <v>1478.238441898806</v>
+        <v>49.25095700104799</v>
       </c>
       <c r="D22" t="n">
-        <v>1478.238441898806</v>
+        <v>49.25095700104799</v>
       </c>
       <c r="E22" t="n">
-        <v>1478.238441898806</v>
+        <v>49.25095700104799</v>
       </c>
       <c r="F22" t="n">
-        <v>1478.238441898806</v>
+        <v>49.25095700104799</v>
       </c>
       <c r="G22" t="n">
-        <v>1478.238441898806</v>
+        <v>49.25095700104799</v>
       </c>
       <c r="H22" t="n">
-        <v>1478.238441898806</v>
+        <v>49.25095700104799</v>
       </c>
       <c r="I22" t="n">
-        <v>1354.490700994523</v>
+        <v>49.25095700104799</v>
       </c>
       <c r="J22" t="n">
-        <v>1354.490700994523</v>
+        <v>49.25095700104799</v>
       </c>
       <c r="K22" t="n">
-        <v>1465.548499666033</v>
+        <v>160.3087556725587</v>
       </c>
       <c r="L22" t="n">
-        <v>1665.269534707763</v>
+        <v>360.0297907142883</v>
       </c>
       <c r="M22" t="n">
-        <v>1887.764810257272</v>
+        <v>582.5250662637972</v>
       </c>
       <c r="N22" t="n">
-        <v>2108.204102924866</v>
+        <v>802.9643589313911</v>
       </c>
       <c r="O22" t="n">
-        <v>2300.896915515308</v>
+        <v>995.657171521833</v>
       </c>
       <c r="P22" t="n">
-        <v>2444.494729428973</v>
+        <v>1139.254985435498</v>
       </c>
       <c r="Q22" t="n">
-        <v>2462.5478500524</v>
+        <v>1157.308106058925</v>
       </c>
       <c r="R22" t="n">
-        <v>2462.5478500524</v>
+        <v>1157.308106058925</v>
       </c>
       <c r="S22" t="n">
-        <v>2462.5478500524</v>
+        <v>1157.308106058925</v>
       </c>
       <c r="T22" t="n">
-        <v>2462.5478500524</v>
+        <v>1157.308106058925</v>
       </c>
       <c r="U22" t="n">
-        <v>2462.5478500524</v>
+        <v>1049.430285837573</v>
       </c>
       <c r="V22" t="n">
-        <v>2201.812545610823</v>
+        <v>788.6949813959959</v>
       </c>
       <c r="W22" t="n">
-        <v>1915.656144128222</v>
+        <v>502.5385799133951</v>
       </c>
       <c r="X22" t="n">
-        <v>1684.403680023598</v>
+        <v>271.2861158087709</v>
       </c>
       <c r="Y22" t="n">
-        <v>1684.403680023598</v>
+        <v>49.25095700104799</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2072.600302449633</v>
+        <v>2055.102737400583</v>
       </c>
       <c r="C23" t="n">
-        <v>1690.66654378244</v>
+        <v>1673.16897873339</v>
       </c>
       <c r="D23" t="n">
-        <v>1317.842579009664</v>
+        <v>1300.345013960613</v>
       </c>
       <c r="E23" t="n">
-        <v>923.0568591157705</v>
+        <v>905.5592940667202</v>
       </c>
       <c r="F23" t="n">
-        <v>923.0568591157705</v>
+        <v>491.4081033768906</v>
       </c>
       <c r="G23" t="n">
-        <v>508.469249512805</v>
+        <v>76.82049377392501</v>
       </c>
       <c r="H23" t="n">
-        <v>191.1775704760407</v>
+        <v>76.82049377392501</v>
       </c>
       <c r="I23" t="n">
         <v>76.82049377392501</v>
@@ -6025,16 +6025,16 @@
         <v>3586.260662565672</v>
       </c>
       <c r="V23" t="n">
-        <v>3249.281388461613</v>
+        <v>3586.260662565672</v>
       </c>
       <c r="W23" t="n">
-        <v>2886.746458319214</v>
+        <v>3224.718272821271</v>
       </c>
       <c r="X23" t="n">
-        <v>2860.185697391814</v>
+        <v>2842.688132342764</v>
       </c>
       <c r="Y23" t="n">
-        <v>2466.643841967652</v>
+        <v>2449.146276918602</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>76.82049377392501</v>
       </c>
       <c r="J24" t="n">
-        <v>76.82049377392501</v>
+        <v>110.808486671133</v>
       </c>
       <c r="K24" t="n">
-        <v>434.7164152796675</v>
+        <v>468.7044081768755</v>
       </c>
       <c r="L24" t="n">
-        <v>973.1951252038273</v>
+        <v>1007.183118101035</v>
       </c>
       <c r="M24" t="n">
-        <v>1060.348479137577</v>
+        <v>1094.336472034785</v>
       </c>
       <c r="N24" t="n">
-        <v>1454.780177103289</v>
+        <v>1195.503539908308</v>
       </c>
       <c r="O24" t="n">
-        <v>2036.175500926782</v>
+        <v>1776.898863731801</v>
       </c>
       <c r="P24" t="n">
-        <v>2490.117386825276</v>
+        <v>2230.840749630295</v>
       </c>
       <c r="Q24" t="n">
         <v>2490.117386825276</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>674.6135416067502</v>
+        <v>76.82049377392501</v>
       </c>
       <c r="C25" t="n">
-        <v>674.6135416067502</v>
+        <v>76.82049377392501</v>
       </c>
       <c r="D25" t="n">
-        <v>674.6135416067502</v>
+        <v>76.82049377392501</v>
       </c>
       <c r="E25" t="n">
-        <v>674.6135416067502</v>
+        <v>76.82049377392501</v>
       </c>
       <c r="F25" t="n">
-        <v>522.1328866325273</v>
+        <v>76.82049377392501</v>
       </c>
       <c r="G25" t="n">
-        <v>353.8933324937975</v>
+        <v>76.82049377392501</v>
       </c>
       <c r="H25" t="n">
-        <v>200.5682346782079</v>
+        <v>76.82049377392501</v>
       </c>
       <c r="I25" t="n">
         <v>76.82049377392501</v>
@@ -6156,10 +6156,10 @@
         <v>387.5993274871653</v>
       </c>
       <c r="M25" t="n">
-        <v>610.094603036674</v>
+        <v>610.0946030366741</v>
       </c>
       <c r="N25" t="n">
-        <v>830.5338957042679</v>
+        <v>830.533895704268</v>
       </c>
       <c r="O25" t="n">
         <v>1023.22670829471</v>
@@ -6174,25 +6174,25 @@
         <v>1184.877642831802</v>
       </c>
       <c r="S25" t="n">
-        <v>983.0218151799138</v>
+        <v>1184.877642831802</v>
       </c>
       <c r="T25" t="n">
-        <v>752.7491475583884</v>
+        <v>954.604975210277</v>
       </c>
       <c r="U25" t="n">
-        <v>752.7491475583884</v>
+        <v>667.4518372171997</v>
       </c>
       <c r="V25" t="n">
-        <v>752.7491475583884</v>
+        <v>406.7165327756223</v>
       </c>
       <c r="W25" t="n">
-        <v>752.7491475583884</v>
+        <v>120.5601312930214</v>
       </c>
       <c r="X25" t="n">
-        <v>752.7491475583884</v>
+        <v>76.82049377392501</v>
       </c>
       <c r="Y25" t="n">
-        <v>752.7491475583884</v>
+        <v>76.82049377392501</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1740.778920430335</v>
+        <v>1999.570451664571</v>
       </c>
       <c r="C26" t="n">
-        <v>1358.845161763143</v>
+        <v>1617.636692997378</v>
       </c>
       <c r="D26" t="n">
-        <v>986.0211969903662</v>
+        <v>1617.636692997378</v>
       </c>
       <c r="E26" t="n">
-        <v>922.6204402026347</v>
+        <v>1222.850973103485</v>
       </c>
       <c r="F26" t="n">
-        <v>508.469249512805</v>
+        <v>808.6997824136549</v>
       </c>
       <c r="G26" t="n">
-        <v>508.469249512805</v>
+        <v>394.1121728106894</v>
       </c>
       <c r="H26" t="n">
-        <v>191.1775704760407</v>
+        <v>76.82049377392501</v>
       </c>
       <c r="I26" t="n">
         <v>76.82049377392501</v>
       </c>
       <c r="J26" t="n">
-        <v>274.9584937083432</v>
+        <v>274.9584937083428</v>
       </c>
       <c r="K26" t="n">
-        <v>704.1492115092142</v>
+        <v>704.1492115092137</v>
       </c>
       <c r="L26" t="n">
-        <v>1286.56825547968</v>
+        <v>1286.568255479679</v>
       </c>
       <c r="M26" t="n">
-        <v>1940.771320393332</v>
+        <v>1940.771320393331</v>
       </c>
       <c r="N26" t="n">
-        <v>2584.289246451296</v>
+        <v>2584.289246451295</v>
       </c>
       <c r="O26" t="n">
         <v>3139.701986686134</v>
       </c>
       <c r="P26" t="n">
-        <v>3581.576450687623</v>
+        <v>3581.576450687622</v>
       </c>
       <c r="Q26" t="n">
         <v>3836.501697114293</v>
@@ -6253,25 +6253,25 @@
         <v>3841.02468869625</v>
       </c>
       <c r="S26" t="n">
-        <v>3688.350152911718</v>
+        <v>3841.02468869625</v>
       </c>
       <c r="T26" t="n">
-        <v>3470.62914671004</v>
+        <v>3623.303682494572</v>
       </c>
       <c r="U26" t="n">
-        <v>3215.865120579462</v>
+        <v>3474.656651813697</v>
       </c>
       <c r="V26" t="n">
-        <v>2878.885846475403</v>
+        <v>3137.677377709638</v>
       </c>
       <c r="W26" t="n">
-        <v>2516.350916333004</v>
+        <v>2775.142447567239</v>
       </c>
       <c r="X26" t="n">
-        <v>2134.320775854497</v>
+        <v>2393.112307088732</v>
       </c>
       <c r="Y26" t="n">
-        <v>1740.778920430335</v>
+        <v>1999.570451664571</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>76.82049377392501</v>
       </c>
       <c r="J27" t="n">
-        <v>76.82049377392501</v>
+        <v>212.2024359573062</v>
       </c>
       <c r="K27" t="n">
-        <v>94.34965524447884</v>
+        <v>570.0983574630486</v>
       </c>
       <c r="L27" t="n">
-        <v>155.5568407630867</v>
+        <v>1108.577067387208</v>
       </c>
       <c r="M27" t="n">
-        <v>842.0726117430863</v>
+        <v>1195.730421320958</v>
       </c>
       <c r="N27" t="n">
-        <v>1560.153315396762</v>
+        <v>1296.897489194481</v>
       </c>
       <c r="O27" t="n">
-        <v>2141.548639220255</v>
+        <v>1776.898863731801</v>
       </c>
       <c r="P27" t="n">
-        <v>2490.117386825276</v>
+        <v>2230.840749630295</v>
       </c>
       <c r="Q27" t="n">
         <v>2490.117386825276</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>548.5310137176522</v>
+        <v>660.3493518127744</v>
       </c>
       <c r="C28" t="n">
-        <v>548.5310137176522</v>
+        <v>490.7333822744547</v>
       </c>
       <c r="D28" t="n">
-        <v>548.5310137176522</v>
+        <v>490.7333822744547</v>
       </c>
       <c r="E28" t="n">
-        <v>397.5407028868776</v>
+        <v>490.7333822744547</v>
       </c>
       <c r="F28" t="n">
-        <v>245.0600479126547</v>
+        <v>368.8077888169376</v>
       </c>
       <c r="G28" t="n">
-        <v>76.82049377392501</v>
+        <v>200.5682346782079</v>
       </c>
       <c r="H28" t="n">
-        <v>76.82049377392501</v>
+        <v>200.5682346782079</v>
       </c>
       <c r="I28" t="n">
         <v>76.82049377392501</v>
@@ -6423,13 +6423,13 @@
         <v>1065.939879304877</v>
       </c>
       <c r="W28" t="n">
-        <v>779.7834778222764</v>
+        <v>1065.939879304877</v>
       </c>
       <c r="X28" t="n">
-        <v>548.5310137176522</v>
+        <v>1065.939879304877</v>
       </c>
       <c r="Y28" t="n">
-        <v>548.5310137176522</v>
+        <v>843.9047204971542</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1346.735380912316</v>
+        <v>1373.374864745676</v>
       </c>
       <c r="C29" t="n">
-        <v>964.8016222451236</v>
+        <v>1373.374864745676</v>
       </c>
       <c r="D29" t="n">
-        <v>923.0568591157705</v>
+        <v>1000.550899972899</v>
       </c>
       <c r="E29" t="n">
-        <v>923.0568591157705</v>
+        <v>605.7651800790062</v>
       </c>
       <c r="F29" t="n">
-        <v>923.0568591157705</v>
+        <v>605.7651800790062</v>
       </c>
       <c r="G29" t="n">
-        <v>508.469249512805</v>
+        <v>191.1775704760407</v>
       </c>
       <c r="H29" t="n">
         <v>191.1775704760407</v>
@@ -6463,19 +6463,19 @@
         <v>76.82049377392501</v>
       </c>
       <c r="J29" t="n">
-        <v>274.9584937083428</v>
+        <v>274.9584937083432</v>
       </c>
       <c r="K29" t="n">
-        <v>704.1492115092137</v>
+        <v>704.1492115092143</v>
       </c>
       <c r="L29" t="n">
-        <v>1286.568255479679</v>
+        <v>1286.56825547968</v>
       </c>
       <c r="M29" t="n">
-        <v>1940.771320393331</v>
+        <v>1940.771320393332</v>
       </c>
       <c r="N29" t="n">
-        <v>2584.289246451295</v>
+        <v>2584.289246451296</v>
       </c>
       <c r="O29" t="n">
         <v>3139.701986686134</v>
@@ -6496,7 +6496,7 @@
         <v>3470.62914671004</v>
       </c>
       <c r="U29" t="n">
-        <v>3215.865120579462</v>
+        <v>3215.865120579461</v>
       </c>
       <c r="V29" t="n">
         <v>2878.885846475403</v>
@@ -6508,7 +6508,7 @@
         <v>2134.320775854497</v>
       </c>
       <c r="Y29" t="n">
-        <v>1740.778920430335</v>
+        <v>1767.418404263695</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2270.459392945058</v>
+        <v>919.5520910740837</v>
       </c>
       <c r="C30" t="n">
-        <v>2108.755720186013</v>
+        <v>757.8484183150384</v>
       </c>
       <c r="D30" t="n">
-        <v>1969.917083176225</v>
+        <v>619.0097813052505</v>
       </c>
       <c r="E30" t="n">
-        <v>1822.889073233096</v>
+        <v>471.9817713621218</v>
       </c>
       <c r="F30" t="n">
-        <v>1688.19527518297</v>
+        <v>337.2879733119962</v>
       </c>
       <c r="G30" t="n">
-        <v>1560.278108397892</v>
+        <v>209.3708065269179</v>
       </c>
       <c r="H30" t="n">
-        <v>1468.176021505928</v>
+        <v>117.2687196349536</v>
       </c>
       <c r="I30" t="n">
-        <v>1427.727795644899</v>
+        <v>76.82049377392501</v>
       </c>
       <c r="J30" t="n">
-        <v>1563.10973782828</v>
+        <v>212.2024359573062</v>
       </c>
       <c r="K30" t="n">
-        <v>1921.005659334023</v>
+        <v>468.7044081768755</v>
       </c>
       <c r="L30" t="n">
-        <v>2459.484369258183</v>
+        <v>1007.183118101035</v>
       </c>
       <c r="M30" t="n">
-        <v>2704.52041110074</v>
+        <v>1094.336472034785</v>
       </c>
       <c r="N30" t="n">
-        <v>2805.687478974263</v>
+        <v>1195.503539908308</v>
       </c>
       <c r="O30" t="n">
-        <v>3387.082802797756</v>
+        <v>1776.898863731801</v>
       </c>
       <c r="P30" t="n">
-        <v>3841.02468869625</v>
+        <v>2230.840749630295</v>
       </c>
       <c r="Q30" t="n">
-        <v>3841.02468869625</v>
+        <v>2490.117386825276</v>
       </c>
       <c r="R30" t="n">
-        <v>3831.614247250913</v>
+        <v>2480.706945379939</v>
       </c>
       <c r="S30" t="n">
-        <v>3693.884918450422</v>
+        <v>2342.977616579448</v>
       </c>
       <c r="T30" t="n">
-        <v>3508.470056735331</v>
+        <v>2157.562754864357</v>
       </c>
       <c r="U30" t="n">
-        <v>3290.028641517301</v>
+        <v>1939.121339646327</v>
       </c>
       <c r="V30" t="n">
-        <v>3061.633018965636</v>
+        <v>1710.725717094661</v>
       </c>
       <c r="W30" t="n">
-        <v>2820.317150198945</v>
+        <v>1469.409848327971</v>
       </c>
       <c r="X30" t="n">
-        <v>2622.40016207674</v>
+        <v>1271.492860205766</v>
       </c>
       <c r="Y30" t="n">
-        <v>2429.878835726319</v>
+        <v>1078.971533855345</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2732.967539638373</v>
+        <v>148.9769712626583</v>
       </c>
       <c r="C31" t="n">
-        <v>2732.967539638373</v>
+        <v>148.9769712626583</v>
       </c>
       <c r="D31" t="n">
-        <v>2732.967539638373</v>
+        <v>148.9769712626583</v>
       </c>
       <c r="E31" t="n">
-        <v>2732.967539638373</v>
+        <v>148.9769712626583</v>
       </c>
       <c r="F31" t="n">
-        <v>2732.967539638373</v>
+        <v>148.9769712626583</v>
       </c>
       <c r="G31" t="n">
-        <v>2732.967539638373</v>
+        <v>76.82049377392501</v>
       </c>
       <c r="H31" t="n">
-        <v>2732.967539638373</v>
+        <v>76.82049377392501</v>
       </c>
       <c r="I31" t="n">
-        <v>2732.967539638373</v>
+        <v>76.82049377392501</v>
       </c>
       <c r="J31" t="n">
-        <v>2732.967539638373</v>
+        <v>76.82049377392501</v>
       </c>
       <c r="K31" t="n">
-        <v>2844.025338309884</v>
+        <v>187.8782924454357</v>
       </c>
       <c r="L31" t="n">
-        <v>3043.746373351613</v>
+        <v>387.5993274871653</v>
       </c>
       <c r="M31" t="n">
-        <v>3266.241648901122</v>
+        <v>610.094603036674</v>
       </c>
       <c r="N31" t="n">
-        <v>3486.680941568716</v>
+        <v>830.5338957042679</v>
       </c>
       <c r="O31" t="n">
-        <v>3679.373754159158</v>
+        <v>1023.22670829471</v>
       </c>
       <c r="P31" t="n">
-        <v>3822.971568072824</v>
+        <v>1166.824522208375</v>
       </c>
       <c r="Q31" t="n">
-        <v>3841.02468869625</v>
+        <v>1184.877642831802</v>
       </c>
       <c r="R31" t="n">
-        <v>3841.02468869625</v>
+        <v>1184.877642831802</v>
       </c>
       <c r="S31" t="n">
-        <v>3639.168861044362</v>
+        <v>983.0218151799138</v>
       </c>
       <c r="T31" t="n">
-        <v>3408.896193422836</v>
+        <v>983.0218151799138</v>
       </c>
       <c r="U31" t="n">
-        <v>3121.743055429759</v>
+        <v>695.8686771868365</v>
       </c>
       <c r="V31" t="n">
-        <v>2861.007750988182</v>
+        <v>435.1333727452591</v>
       </c>
       <c r="W31" t="n">
-        <v>2861.007750988182</v>
+        <v>148.9769712626583</v>
       </c>
       <c r="X31" t="n">
-        <v>2861.007750988182</v>
+        <v>148.9769712626583</v>
       </c>
       <c r="Y31" t="n">
-        <v>2732.967539638373</v>
+        <v>148.9769712626583</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1990.460657770154</v>
+        <v>1717.130922898526</v>
       </c>
       <c r="C32" t="n">
-        <v>1990.460657770154</v>
+        <v>1335.197164231334</v>
       </c>
       <c r="D32" t="n">
-        <v>1617.636692997378</v>
+        <v>962.3731994585571</v>
       </c>
       <c r="E32" t="n">
-        <v>1222.850973103485</v>
+        <v>567.5874795646639</v>
       </c>
       <c r="F32" t="n">
-        <v>808.6997824136549</v>
+        <v>153.4362888748342</v>
       </c>
       <c r="G32" t="n">
-        <v>394.1121728106894</v>
+        <v>153.4362888748342</v>
       </c>
       <c r="H32" t="n">
         <v>76.82049377392501</v>
@@ -6700,25 +6700,25 @@
         <v>76.82049377392501</v>
       </c>
       <c r="J32" t="n">
-        <v>274.9584937083428</v>
+        <v>274.9584937083432</v>
       </c>
       <c r="K32" t="n">
-        <v>704.1492115092137</v>
+        <v>704.1492115092142</v>
       </c>
       <c r="L32" t="n">
-        <v>1286.568255479679</v>
+        <v>1286.56825547968</v>
       </c>
       <c r="M32" t="n">
-        <v>1940.771320393331</v>
+        <v>1940.771320393332</v>
       </c>
       <c r="N32" t="n">
-        <v>2584.289246451295</v>
+        <v>2584.289246451296</v>
       </c>
       <c r="O32" t="n">
         <v>3139.701986686134</v>
       </c>
       <c r="P32" t="n">
-        <v>3581.576450687622</v>
+        <v>3581.576450687623</v>
       </c>
       <c r="Q32" t="n">
         <v>3836.501697114293</v>
@@ -6727,25 +6727,25 @@
         <v>3841.02468869625</v>
       </c>
       <c r="S32" t="n">
-        <v>3688.350152911718</v>
+        <v>3841.02468869625</v>
       </c>
       <c r="T32" t="n">
-        <v>3470.62914671004</v>
+        <v>3841.02468869625</v>
       </c>
       <c r="U32" t="n">
-        <v>3215.865120579461</v>
+        <v>3586.260662565672</v>
       </c>
       <c r="V32" t="n">
-        <v>3140.580982854734</v>
+        <v>3249.281388461613</v>
       </c>
       <c r="W32" t="n">
-        <v>2778.046052712335</v>
+        <v>2886.746458319214</v>
       </c>
       <c r="X32" t="n">
-        <v>2778.046052712335</v>
+        <v>2504.716317840707</v>
       </c>
       <c r="Y32" t="n">
-        <v>2384.504197288174</v>
+        <v>2111.174462416545</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>76.82049377392501</v>
       </c>
       <c r="J33" t="n">
-        <v>76.82049377392501</v>
+        <v>212.2024359573062</v>
       </c>
       <c r="K33" t="n">
-        <v>94.34965524447884</v>
+        <v>570.0983574630486</v>
       </c>
       <c r="L33" t="n">
-        <v>632.8283651686387</v>
+        <v>1108.577067387208</v>
       </c>
       <c r="M33" t="n">
-        <v>1319.344136148638</v>
+        <v>1195.730421320958</v>
       </c>
       <c r="N33" t="n">
-        <v>1864.641760342888</v>
+        <v>1296.897489194481</v>
       </c>
       <c r="O33" t="n">
-        <v>2446.037084166381</v>
+        <v>1776.898863731801</v>
       </c>
       <c r="P33" t="n">
-        <v>2490.117386825276</v>
+        <v>2230.840749630295</v>
       </c>
       <c r="Q33" t="n">
         <v>2490.117386825276</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>823.4223827799532</v>
+        <v>76.82049377392501</v>
       </c>
       <c r="C34" t="n">
-        <v>823.4223827799532</v>
+        <v>76.82049377392501</v>
       </c>
       <c r="D34" t="n">
-        <v>670.3504896077159</v>
+        <v>76.82049377392501</v>
       </c>
       <c r="E34" t="n">
-        <v>518.3414753690347</v>
+        <v>76.82049377392501</v>
       </c>
       <c r="F34" t="n">
-        <v>365.8608203948118</v>
+        <v>76.82049377392501</v>
       </c>
       <c r="G34" t="n">
-        <v>365.8608203948118</v>
+        <v>76.82049377392501</v>
       </c>
       <c r="H34" t="n">
-        <v>212.5357225792222</v>
+        <v>76.82049377392501</v>
       </c>
       <c r="I34" t="n">
-        <v>88.78798167493932</v>
+        <v>76.82049377392501</v>
       </c>
       <c r="J34" t="n">
         <v>76.82049377392501</v>
@@ -6891,19 +6891,19 @@
         <v>954.6049752102767</v>
       </c>
       <c r="U34" t="n">
-        <v>954.6049752102767</v>
+        <v>667.4518372171995</v>
       </c>
       <c r="V34" t="n">
-        <v>954.6049752102767</v>
+        <v>406.7165327756221</v>
       </c>
       <c r="W34" t="n">
-        <v>954.6049752102767</v>
+        <v>120.5601312930212</v>
       </c>
       <c r="X34" t="n">
-        <v>954.6049752102767</v>
+        <v>76.82049377392501</v>
       </c>
       <c r="Y34" t="n">
-        <v>823.4223827799532</v>
+        <v>76.82049377392501</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1092.823211314706</v>
+        <v>895.0509034297577</v>
       </c>
       <c r="C35" t="n">
-        <v>1092.823211314706</v>
+        <v>895.0509034297577</v>
       </c>
       <c r="D35" t="n">
-        <v>1092.823211314706</v>
+        <v>895.0509034297577</v>
       </c>
       <c r="E35" t="n">
-        <v>698.0374914208126</v>
+        <v>895.0509034297577</v>
       </c>
       <c r="F35" t="n">
-        <v>366.5426360378124</v>
+        <v>480.8997127399281</v>
       </c>
       <c r="G35" t="n">
-        <v>366.5426360378124</v>
+        <v>480.8997127399281</v>
       </c>
       <c r="H35" t="n">
-        <v>49.250957001048</v>
+        <v>163.6080337031637</v>
       </c>
       <c r="I35" t="n">
         <v>49.250957001048</v>
@@ -6940,16 +6940,16 @@
         <v>247.3889569354657</v>
       </c>
       <c r="K35" t="n">
-        <v>313.1999403448497</v>
+        <v>676.5796747363366</v>
       </c>
       <c r="L35" t="n">
-        <v>895.6189843153153</v>
+        <v>1258.998718706802</v>
       </c>
       <c r="M35" t="n">
-        <v>1505.099577203284</v>
+        <v>1334.677866015179</v>
       </c>
       <c r="N35" t="n">
-        <v>2114.580170091253</v>
+        <v>1624.4903368061</v>
       </c>
       <c r="O35" t="n">
         <v>2179.903077040939</v>
@@ -6973,16 +6973,16 @@
         <v>1837.388281935611</v>
       </c>
       <c r="V35" t="n">
-        <v>1837.388281935611</v>
+        <v>1500.409007831553</v>
       </c>
       <c r="W35" t="n">
-        <v>1474.853351793212</v>
+        <v>1137.874077689154</v>
       </c>
       <c r="X35" t="n">
-        <v>1092.823211314706</v>
+        <v>895.0509034297577</v>
       </c>
       <c r="Y35" t="n">
-        <v>1092.823211314706</v>
+        <v>895.0509034297577</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>891.9825543012073</v>
+        <v>891.9825543012067</v>
       </c>
       <c r="C36" t="n">
-        <v>730.278881542162</v>
+        <v>730.2788815421615</v>
       </c>
       <c r="D36" t="n">
-        <v>591.4402445323741</v>
+        <v>591.4402445323735</v>
       </c>
       <c r="E36" t="n">
-        <v>444.4122345892453</v>
+        <v>444.4122345892448</v>
       </c>
       <c r="F36" t="n">
-        <v>309.7184365391197</v>
+        <v>309.7184365391191</v>
       </c>
       <c r="G36" t="n">
-        <v>181.8012697540414</v>
+        <v>181.8012697540408</v>
       </c>
       <c r="H36" t="n">
-        <v>89.69918286207712</v>
+        <v>89.69918286207657</v>
       </c>
       <c r="I36" t="n">
         <v>49.250957001048</v>
@@ -7019,16 +7019,16 @@
         <v>184.6328991844292</v>
       </c>
       <c r="K36" t="n">
-        <v>202.162060654983</v>
+        <v>542.5288206901716</v>
       </c>
       <c r="L36" t="n">
-        <v>263.3692461735908</v>
+        <v>1081.007530614331</v>
       </c>
       <c r="M36" t="n">
-        <v>872.8498390615598</v>
+        <v>1168.160884548081</v>
       </c>
       <c r="N36" t="n">
-        <v>1482.330431949529</v>
+        <v>1269.327952421604</v>
       </c>
       <c r="O36" t="n">
         <v>1749.329326958924</v>
@@ -7043,19 +7043,19 @@
         <v>2453.137408607062</v>
       </c>
       <c r="S36" t="n">
-        <v>2315.408079806572</v>
+        <v>2315.408079806571</v>
       </c>
       <c r="T36" t="n">
         <v>2129.99321809148</v>
       </c>
       <c r="U36" t="n">
-        <v>1911.551802873451</v>
+        <v>1911.55180287345</v>
       </c>
       <c r="V36" t="n">
-        <v>1683.156180321785</v>
+        <v>1683.156180321784</v>
       </c>
       <c r="W36" t="n">
-        <v>1441.840311555095</v>
+        <v>1441.840311555094</v>
       </c>
       <c r="X36" t="n">
         <v>1243.923323432889</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>446.2639816062366</v>
+        <v>92.99059452014421</v>
       </c>
       <c r="C37" t="n">
-        <v>446.2639816062366</v>
+        <v>92.99059452014421</v>
       </c>
       <c r="D37" t="n">
-        <v>293.1920884339993</v>
+        <v>92.99059452014421</v>
       </c>
       <c r="E37" t="n">
-        <v>293.1920884339993</v>
+        <v>92.99059452014421</v>
       </c>
       <c r="F37" t="n">
-        <v>293.1920884339993</v>
+        <v>92.99059452014421</v>
       </c>
       <c r="G37" t="n">
-        <v>124.9525342952696</v>
+        <v>92.99059452014421</v>
       </c>
       <c r="H37" t="n">
-        <v>61.2184449020623</v>
+        <v>49.250957001048</v>
       </c>
       <c r="I37" t="n">
-        <v>61.2184449020623</v>
+        <v>49.250957001048</v>
       </c>
       <c r="J37" t="n">
         <v>49.250957001048</v>
@@ -7122,25 +7122,25 @@
         <v>1157.308106058925</v>
       </c>
       <c r="S37" t="n">
-        <v>955.4522784070368</v>
+        <v>1157.308106058925</v>
       </c>
       <c r="T37" t="n">
-        <v>955.4522784070368</v>
+        <v>927.0354384373998</v>
       </c>
       <c r="U37" t="n">
-        <v>668.2991404139595</v>
+        <v>639.8823004443225</v>
       </c>
       <c r="V37" t="n">
-        <v>668.2991404139595</v>
+        <v>379.1469960027451</v>
       </c>
       <c r="W37" t="n">
-        <v>668.2991404139595</v>
+        <v>92.99059452014421</v>
       </c>
       <c r="X37" t="n">
-        <v>668.2991404139595</v>
+        <v>92.99059452014421</v>
       </c>
       <c r="Y37" t="n">
-        <v>446.2639816062366</v>
+        <v>92.99059452014421</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>579.5214038943063</v>
+        <v>1312.42752496782</v>
       </c>
       <c r="C38" t="n">
-        <v>579.5214038943063</v>
+        <v>1312.42752496782</v>
       </c>
       <c r="D38" t="n">
-        <v>579.5214038943063</v>
+        <v>939.6035601950437</v>
       </c>
       <c r="E38" t="n">
-        <v>184.7356840004132</v>
+        <v>939.6035601950437</v>
       </c>
       <c r="F38" t="n">
-        <v>184.7356840004132</v>
+        <v>525.4523695052139</v>
       </c>
       <c r="G38" t="n">
-        <v>184.7356840004132</v>
+        <v>163.6080337031637</v>
       </c>
       <c r="H38" t="n">
-        <v>49.250957001048</v>
+        <v>163.6080337031637</v>
       </c>
       <c r="I38" t="n">
         <v>49.250957001048</v>
@@ -7177,22 +7177,22 @@
         <v>247.3889569354657</v>
       </c>
       <c r="K38" t="n">
-        <v>676.5796747363366</v>
+        <v>432.8464485077442</v>
       </c>
       <c r="L38" t="n">
-        <v>1258.998718706802</v>
+        <v>1015.26549247821</v>
       </c>
       <c r="M38" t="n">
-        <v>1798.763148893031</v>
+        <v>1090.944639786586</v>
       </c>
       <c r="N38" t="n">
-        <v>1879.415583232771</v>
+        <v>1700.425232674555</v>
       </c>
       <c r="O38" t="n">
-        <v>2434.82832346761</v>
+        <v>1765.748139624241</v>
       </c>
       <c r="P38" t="n">
-        <v>2462.5478500524</v>
+        <v>2207.622603625729</v>
       </c>
       <c r="Q38" t="n">
         <v>2462.5478500524</v>
@@ -7201,25 +7201,25 @@
         <v>2462.5478500524</v>
       </c>
       <c r="S38" t="n">
-        <v>2309.873314267868</v>
+        <v>2462.5478500524</v>
       </c>
       <c r="T38" t="n">
-        <v>2309.873314267868</v>
+        <v>2462.5478500524</v>
       </c>
       <c r="U38" t="n">
-        <v>2055.10928813729</v>
+        <v>2462.5478500524</v>
       </c>
       <c r="V38" t="n">
-        <v>1718.130014033231</v>
+        <v>2462.5478500524</v>
       </c>
       <c r="W38" t="n">
-        <v>1355.595083890832</v>
+        <v>2100.012919910001</v>
       </c>
       <c r="X38" t="n">
-        <v>973.5649434123254</v>
+        <v>2100.012919910001</v>
       </c>
       <c r="Y38" t="n">
-        <v>973.5649434123254</v>
+        <v>1706.471064485839</v>
       </c>
     </row>
     <row r="39">
@@ -7238,40 +7238,40 @@
         <v>591.440244532374</v>
       </c>
       <c r="E39" t="n">
-        <v>444.4122345892451</v>
+        <v>444.4122345892453</v>
       </c>
       <c r="F39" t="n">
-        <v>309.7184365391195</v>
+        <v>309.7184365391191</v>
       </c>
       <c r="G39" t="n">
-        <v>181.8012697540412</v>
+        <v>181.8012697540408</v>
       </c>
       <c r="H39" t="n">
-        <v>89.69918286207658</v>
+        <v>89.69918286207657</v>
       </c>
       <c r="I39" t="n">
         <v>49.250957001048</v>
       </c>
       <c r="J39" t="n">
-        <v>49.250957001048</v>
+        <v>184.6328991844292</v>
       </c>
       <c r="K39" t="n">
-        <v>407.1468785067905</v>
+        <v>202.162060654983</v>
       </c>
       <c r="L39" t="n">
-        <v>468.3540640253983</v>
+        <v>740.6407705791428</v>
       </c>
       <c r="M39" t="n">
-        <v>1077.834656913367</v>
+        <v>1350.121363467112</v>
       </c>
       <c r="N39" t="n">
-        <v>1427.210640330412</v>
+        <v>1674.834808044582</v>
       </c>
       <c r="O39" t="n">
-        <v>2008.605964153905</v>
+        <v>1749.329326958924</v>
       </c>
       <c r="P39" t="n">
-        <v>2462.5478500524</v>
+        <v>2203.271212857419</v>
       </c>
       <c r="Q39" t="n">
         <v>2462.5478500524</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>382.1427389313587</v>
+        <v>202.5760548166376</v>
       </c>
       <c r="C40" t="n">
-        <v>212.526769393039</v>
+        <v>202.5760548166376</v>
       </c>
       <c r="D40" t="n">
-        <v>212.526769393039</v>
+        <v>202.5760548166376</v>
       </c>
       <c r="E40" t="n">
-        <v>172.9986979053309</v>
+        <v>202.5760548166376</v>
       </c>
       <c r="F40" t="n">
-        <v>172.9986979053309</v>
+        <v>202.5760548166376</v>
       </c>
       <c r="G40" t="n">
-        <v>172.9986979053309</v>
+        <v>202.5760548166376</v>
       </c>
       <c r="H40" t="n">
-        <v>172.9986979053309</v>
+        <v>49.250957001048</v>
       </c>
       <c r="I40" t="n">
         <v>49.250957001048</v>
@@ -7359,25 +7359,25 @@
         <v>1157.308106058925</v>
       </c>
       <c r="S40" t="n">
-        <v>955.4522784070368</v>
+        <v>1157.308106058925</v>
       </c>
       <c r="T40" t="n">
-        <v>955.4522784070368</v>
+        <v>927.0354384373998</v>
       </c>
       <c r="U40" t="n">
-        <v>668.2991404139595</v>
+        <v>672.2878249836183</v>
       </c>
       <c r="V40" t="n">
-        <v>668.2991404139595</v>
+        <v>672.2878249836183</v>
       </c>
       <c r="W40" t="n">
-        <v>382.1427389313587</v>
+        <v>386.1314235010174</v>
       </c>
       <c r="X40" t="n">
-        <v>382.1427389313587</v>
+        <v>386.1314235010174</v>
       </c>
       <c r="Y40" t="n">
-        <v>382.1427389313587</v>
+        <v>386.1314235010174</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1143.262114598898</v>
+        <v>1431.710143925296</v>
       </c>
       <c r="C41" t="n">
-        <v>761.3283559317056</v>
+        <v>1272.775477187736</v>
       </c>
       <c r="D41" t="n">
-        <v>761.3283559317056</v>
+        <v>1272.775477187736</v>
       </c>
       <c r="E41" t="n">
-        <v>366.5426360378124</v>
+        <v>877.9897572938432</v>
       </c>
       <c r="F41" t="n">
-        <v>366.5426360378124</v>
+        <v>463.8385666040135</v>
       </c>
       <c r="G41" t="n">
-        <v>366.5426360378124</v>
+        <v>49.250957001048</v>
       </c>
       <c r="H41" t="n">
         <v>49.250957001048</v>
@@ -7411,22 +7411,22 @@
         <v>49.250957001048</v>
       </c>
       <c r="J41" t="n">
-        <v>247.3889569354657</v>
+        <v>49.250957001048</v>
       </c>
       <c r="K41" t="n">
-        <v>259.4045287572476</v>
+        <v>78.03535348636728</v>
       </c>
       <c r="L41" t="n">
-        <v>304.2935896012835</v>
+        <v>660.4543974568329</v>
       </c>
       <c r="M41" t="n">
-        <v>913.7741824892526</v>
+        <v>1269.934990344802</v>
       </c>
       <c r="N41" t="n">
-        <v>1523.254775377221</v>
+        <v>1879.415583232771</v>
       </c>
       <c r="O41" t="n">
-        <v>2078.66751561206</v>
+        <v>2434.82832346761</v>
       </c>
       <c r="P41" t="n">
         <v>2462.5478500524</v>
@@ -7444,19 +7444,19 @@
         <v>2462.5478500524</v>
       </c>
       <c r="U41" t="n">
-        <v>2224.806459323862</v>
+        <v>2207.783823921822</v>
       </c>
       <c r="V41" t="n">
-        <v>1887.827185219804</v>
+        <v>2207.783823921822</v>
       </c>
       <c r="W41" t="n">
-        <v>1525.292255077405</v>
+        <v>2207.783823921822</v>
       </c>
       <c r="X41" t="n">
-        <v>1143.262114598898</v>
+        <v>1825.753683443315</v>
       </c>
       <c r="Y41" t="n">
-        <v>1143.262114598898</v>
+        <v>1825.753683443315</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>891.9825543012067</v>
+        <v>891.982554301207</v>
       </c>
       <c r="C42" t="n">
-        <v>730.2788815421615</v>
+        <v>730.2788815421618</v>
       </c>
       <c r="D42" t="n">
-        <v>591.4402445323735</v>
+        <v>591.440244532374</v>
       </c>
       <c r="E42" t="n">
-        <v>444.4122345892448</v>
+        <v>444.4122345892451</v>
       </c>
       <c r="F42" t="n">
-        <v>309.7184365391191</v>
+        <v>309.7184365391195</v>
       </c>
       <c r="G42" t="n">
-        <v>181.8012697540408</v>
+        <v>181.8012697540412</v>
       </c>
       <c r="H42" t="n">
-        <v>89.69918286207657</v>
+        <v>89.69918286207658</v>
       </c>
       <c r="I42" t="n">
         <v>49.250957001048</v>
@@ -7493,22 +7493,22 @@
         <v>184.6328991844292</v>
       </c>
       <c r="K42" t="n">
-        <v>202.162060654983</v>
+        <v>542.5288206901716</v>
       </c>
       <c r="L42" t="n">
-        <v>263.3692461735908</v>
+        <v>1081.007530614331</v>
       </c>
       <c r="M42" t="n">
-        <v>872.8498390615598</v>
+        <v>1168.160884548081</v>
       </c>
       <c r="N42" t="n">
-        <v>1482.330431949529</v>
+        <v>1269.327952421604</v>
       </c>
       <c r="O42" t="n">
-        <v>2063.725755773022</v>
+        <v>1749.329326958924</v>
       </c>
       <c r="P42" t="n">
-        <v>2462.5478500524</v>
+        <v>2203.271212857419</v>
       </c>
       <c r="Q42" t="n">
         <v>2462.5478500524</v>
@@ -7517,19 +7517,19 @@
         <v>2453.137408607062</v>
       </c>
       <c r="S42" t="n">
-        <v>2315.408079806571</v>
+        <v>2315.408079806572</v>
       </c>
       <c r="T42" t="n">
         <v>2129.99321809148</v>
       </c>
       <c r="U42" t="n">
-        <v>1911.55180287345</v>
+        <v>1911.551802873451</v>
       </c>
       <c r="V42" t="n">
-        <v>1683.156180321784</v>
+        <v>1683.156180321785</v>
       </c>
       <c r="W42" t="n">
-        <v>1441.840311555094</v>
+        <v>1441.840311555095</v>
       </c>
       <c r="X42" t="n">
         <v>1243.923323432889</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>49.250957001048</v>
+        <v>147.8945318981208</v>
       </c>
       <c r="C43" t="n">
-        <v>49.250957001048</v>
+        <v>147.8945318981208</v>
       </c>
       <c r="D43" t="n">
         <v>49.250957001048</v>
@@ -7593,28 +7593,28 @@
         <v>1157.308106058925</v>
       </c>
       <c r="R43" t="n">
-        <v>1049.430285837574</v>
+        <v>1157.308106058925</v>
       </c>
       <c r="S43" t="n">
-        <v>1049.430285837574</v>
+        <v>1157.308106058925</v>
       </c>
       <c r="T43" t="n">
-        <v>1049.430285837574</v>
+        <v>927.0354384373998</v>
       </c>
       <c r="U43" t="n">
-        <v>1049.430285837574</v>
+        <v>639.8823004443225</v>
       </c>
       <c r="V43" t="n">
-        <v>788.6949813959961</v>
+        <v>379.1469960027451</v>
       </c>
       <c r="W43" t="n">
-        <v>502.5385799133952</v>
+        <v>379.1469960027451</v>
       </c>
       <c r="X43" t="n">
-        <v>271.2861158087709</v>
+        <v>147.8945318981208</v>
       </c>
       <c r="Y43" t="n">
-        <v>49.250957001048</v>
+        <v>147.8945318981208</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1477.262694393601</v>
+        <v>1140.25777884718</v>
       </c>
       <c r="C44" t="n">
-        <v>1477.262694393601</v>
+        <v>758.3240201799874</v>
       </c>
       <c r="D44" t="n">
-        <v>1309.638513032723</v>
+        <v>385.500055407211</v>
       </c>
       <c r="E44" t="n">
-        <v>1309.638513032723</v>
+        <v>385.500055407211</v>
       </c>
       <c r="F44" t="n">
-        <v>895.4873223428935</v>
+        <v>49.250957001048</v>
       </c>
       <c r="G44" t="n">
-        <v>480.8997127399281</v>
+        <v>49.250957001048</v>
       </c>
       <c r="H44" t="n">
-        <v>163.6080337031637</v>
+        <v>49.250957001048</v>
       </c>
       <c r="I44" t="n">
         <v>49.250957001048</v>
       </c>
       <c r="J44" t="n">
-        <v>49.250957001048</v>
+        <v>247.3889569354657</v>
       </c>
       <c r="K44" t="n">
-        <v>61.26652882282993</v>
+        <v>676.5796747363366</v>
       </c>
       <c r="L44" t="n">
-        <v>246.2994600401348</v>
+        <v>1049.480826159328</v>
       </c>
       <c r="M44" t="n">
-        <v>855.7800529281038</v>
+        <v>1125.159973467705</v>
       </c>
       <c r="N44" t="n">
-        <v>1465.260645816073</v>
+        <v>1205.812407807445</v>
       </c>
       <c r="O44" t="n">
-        <v>2020.673386050911</v>
+        <v>1761.225148042284</v>
       </c>
       <c r="P44" t="n">
-        <v>2462.5478500524</v>
+        <v>2203.099612043772</v>
       </c>
       <c r="Q44" t="n">
-        <v>2462.5478500524</v>
+        <v>2458.024858470443</v>
       </c>
       <c r="R44" t="n">
         <v>2462.5478500524</v>
       </c>
       <c r="S44" t="n">
-        <v>2462.5478500524</v>
+        <v>2309.873314267868</v>
       </c>
       <c r="T44" t="n">
-        <v>2462.5478500524</v>
+        <v>2309.873314267868</v>
       </c>
       <c r="U44" t="n">
-        <v>2207.783823921822</v>
+        <v>2309.873314267868</v>
       </c>
       <c r="V44" t="n">
-        <v>1870.804549817763</v>
+        <v>2309.873314267868</v>
       </c>
       <c r="W44" t="n">
-        <v>1870.804549817763</v>
+        <v>2309.873314267868</v>
       </c>
       <c r="X44" t="n">
-        <v>1870.804549817763</v>
+        <v>1927.843173789361</v>
       </c>
       <c r="Y44" t="n">
-        <v>1477.262694393601</v>
+        <v>1534.301318365199</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>891.9825543012073</v>
+        <v>891.9825543012067</v>
       </c>
       <c r="C45" t="n">
-        <v>730.278881542162</v>
+        <v>730.2788815421615</v>
       </c>
       <c r="D45" t="n">
-        <v>591.4402445323741</v>
+        <v>591.4402445323735</v>
       </c>
       <c r="E45" t="n">
-        <v>444.4122345892453</v>
+        <v>444.4122345892448</v>
       </c>
       <c r="F45" t="n">
         <v>309.7184365391191</v>
@@ -7727,25 +7727,25 @@
         <v>49.250957001048</v>
       </c>
       <c r="J45" t="n">
-        <v>49.250957001048</v>
+        <v>184.6328991844292</v>
       </c>
       <c r="K45" t="n">
-        <v>66.78011847160182</v>
+        <v>542.5288206901716</v>
       </c>
       <c r="L45" t="n">
-        <v>208.2494545544744</v>
+        <v>1081.007530614331</v>
       </c>
       <c r="M45" t="n">
-        <v>817.7300474424434</v>
+        <v>1168.160884548081</v>
       </c>
       <c r="N45" t="n">
-        <v>1427.210640330412</v>
+        <v>1269.327952421604</v>
       </c>
       <c r="O45" t="n">
-        <v>2008.605964153905</v>
+        <v>1749.329326958924</v>
       </c>
       <c r="P45" t="n">
-        <v>2462.5478500524</v>
+        <v>2203.271212857419</v>
       </c>
       <c r="Q45" t="n">
         <v>2462.5478500524</v>
@@ -7754,19 +7754,19 @@
         <v>2453.137408607062</v>
       </c>
       <c r="S45" t="n">
-        <v>2315.408079806572</v>
+        <v>2315.408079806571</v>
       </c>
       <c r="T45" t="n">
         <v>2129.99321809148</v>
       </c>
       <c r="U45" t="n">
-        <v>1911.551802873451</v>
+        <v>1911.55180287345</v>
       </c>
       <c r="V45" t="n">
-        <v>1683.156180321785</v>
+        <v>1683.156180321784</v>
       </c>
       <c r="W45" t="n">
-        <v>1441.840311555095</v>
+        <v>1441.840311555094</v>
       </c>
       <c r="X45" t="n">
         <v>1243.923323432889</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>646.5723640983313</v>
+        <v>478.5512460517911</v>
       </c>
       <c r="C46" t="n">
-        <v>646.5723640983313</v>
+        <v>478.5512460517911</v>
       </c>
       <c r="D46" t="n">
-        <v>646.5723640983313</v>
+        <v>325.4793528795537</v>
       </c>
       <c r="E46" t="n">
-        <v>494.5633498596501</v>
+        <v>325.4793528795537</v>
       </c>
       <c r="F46" t="n">
-        <v>494.5633498596501</v>
+        <v>172.9986979053309</v>
       </c>
       <c r="G46" t="n">
-        <v>326.3237957209204</v>
+        <v>172.9986979053309</v>
       </c>
       <c r="H46" t="n">
         <v>172.9986979053309</v>
@@ -7833,25 +7833,25 @@
         <v>1157.308106058925</v>
       </c>
       <c r="S46" t="n">
-        <v>1157.308106058925</v>
+        <v>955.4522784070368</v>
       </c>
       <c r="T46" t="n">
-        <v>927.0354384373998</v>
+        <v>893.3590788407951</v>
       </c>
       <c r="U46" t="n">
-        <v>927.0354384373998</v>
+        <v>893.3590788407951</v>
       </c>
       <c r="V46" t="n">
-        <v>927.0354384373998</v>
+        <v>893.3590788407951</v>
       </c>
       <c r="W46" t="n">
-        <v>927.0354384373998</v>
+        <v>893.3590788407951</v>
       </c>
       <c r="X46" t="n">
-        <v>927.0354384373998</v>
+        <v>662.1066147361709</v>
       </c>
       <c r="Y46" t="n">
-        <v>830.1277327827111</v>
+        <v>662.1066147361709</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>147.0997974279326</v>
+        <v>157.109476210864</v>
       </c>
       <c r="K2" t="n">
         <v>178.8230039740467</v>
@@ -7987,19 +7987,19 @@
         <v>201.569890946046</v>
       </c>
       <c r="M2" t="n">
-        <v>197.1659932800904</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N2" t="n">
-        <v>196.0033614891845</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O2" t="n">
         <v>186.9547967801205</v>
       </c>
       <c r="P2" t="n">
-        <v>197.8864878340879</v>
+        <v>197.4820563681108</v>
       </c>
       <c r="Q2" t="n">
-        <v>180.6233730229902</v>
+        <v>190.6330518059216</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8069,7 +8069,7 @@
         <v>115.4839025616399</v>
       </c>
       <c r="N3" t="n">
-        <v>106.7151410677083</v>
+        <v>116.7248198506397</v>
       </c>
       <c r="O3" t="n">
         <v>125.8691273940425</v>
@@ -8078,7 +8078,7 @@
         <v>118.8638848070747</v>
       </c>
       <c r="Q3" t="n">
-        <v>123.7448702278239</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8139,22 +8139,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K4" t="n">
-        <v>114.8329510464913</v>
+        <v>104.82327226356</v>
       </c>
       <c r="L4" t="n">
-        <v>119.6034782614375</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M4" t="n">
-        <v>122.8868782403605</v>
+        <v>122.4824467743834</v>
       </c>
       <c r="N4" t="n">
-        <v>103.744504878002</v>
+        <v>113.7541836609333</v>
       </c>
       <c r="O4" t="n">
-        <v>122.1011848090766</v>
+        <v>122.5056162750536</v>
       </c>
       <c r="P4" t="n">
-        <v>111.9040032899324</v>
+        <v>121.9136820728638</v>
       </c>
       <c r="Q4" t="n">
         <v>84.9458458910769</v>
@@ -8215,19 +8215,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>147.0997974279326</v>
+        <v>157.109476210864</v>
       </c>
       <c r="K5" t="n">
-        <v>188.4282512910011</v>
+        <v>188.8326827569781</v>
       </c>
       <c r="L5" t="n">
-        <v>201.569890946046</v>
+        <v>201.165459480069</v>
       </c>
       <c r="M5" t="n">
-        <v>197.1659932800904</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N5" t="n">
-        <v>196.4077929551615</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O5" t="n">
         <v>186.9547967801205</v>
@@ -8236,7 +8236,7 @@
         <v>187.8768090511565</v>
       </c>
       <c r="Q5" t="n">
-        <v>180.6233730229902</v>
+        <v>190.6330518059216</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8300,22 +8300,22 @@
         <v>111.9961691666667</v>
       </c>
       <c r="L6" t="n">
-        <v>122.1806808881021</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M6" t="n">
         <v>115.4839025616399</v>
       </c>
       <c r="N6" t="n">
-        <v>116.7248198506397</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O6" t="n">
         <v>125.8691273940425</v>
       </c>
       <c r="P6" t="n">
-        <v>108.8542060241433</v>
+        <v>118.4594533410977</v>
       </c>
       <c r="Q6" t="n">
-        <v>113.7351914448925</v>
+        <v>123.7448702278239</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8376,16 +8376,16 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K7" t="n">
-        <v>114.8329510464913</v>
+        <v>104.82327226356</v>
       </c>
       <c r="L7" t="n">
-        <v>109.5937994785061</v>
+        <v>119.1990467954604</v>
       </c>
       <c r="M7" t="n">
-        <v>112.8771994574291</v>
+        <v>122.8868782403605</v>
       </c>
       <c r="N7" t="n">
-        <v>113.3497521949563</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O7" t="n">
         <v>122.5056162750536</v>
@@ -8455,16 +8455,16 @@
         <v>157.109476210864</v>
       </c>
       <c r="K8" t="n">
-        <v>188.4282512910011</v>
+        <v>188.8326827569781</v>
       </c>
       <c r="L8" t="n">
-        <v>191.5602121631146</v>
+        <v>201.165459480069</v>
       </c>
       <c r="M8" t="n">
-        <v>197.1659932800904</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N8" t="n">
-        <v>196.4077929551615</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O8" t="n">
         <v>186.9547967801205</v>
@@ -8473,7 +8473,7 @@
         <v>187.8768090511565</v>
       </c>
       <c r="Q8" t="n">
-        <v>180.6233730229902</v>
+        <v>190.6330518059216</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8543,7 +8543,7 @@
         <v>115.4839025616399</v>
       </c>
       <c r="N9" t="n">
-        <v>116.3203883846626</v>
+        <v>116.7248198506397</v>
       </c>
       <c r="O9" t="n">
         <v>125.8691273940425</v>
@@ -8552,7 +8552,7 @@
         <v>118.8638848070747</v>
       </c>
       <c r="Q9" t="n">
-        <v>123.7448702278239</v>
+        <v>123.3404387618468</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8613,22 +8613,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K10" t="n">
-        <v>104.82327226356</v>
+        <v>114.8329510464913</v>
       </c>
       <c r="L10" t="n">
-        <v>109.5937994785061</v>
+        <v>119.6034782614375</v>
       </c>
       <c r="M10" t="n">
         <v>122.8868782403605</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7541836609333</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O10" t="n">
-        <v>122.5056162750536</v>
+        <v>122.1011848090766</v>
       </c>
       <c r="P10" t="n">
-        <v>121.5092506068868</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q10" t="n">
         <v>84.9458458910769</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>219.8255997236959</v>
+        <v>19.68620585054666</v>
       </c>
       <c r="K11" t="n">
         <v>421.3890363425141</v>
@@ -8701,19 +8701,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>250.5740862581524</v>
       </c>
       <c r="O11" t="n">
-        <v>287.9746791107443</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P11" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
-        <v>276.0094878578761</v>
+        <v>18.5092389420472</v>
       </c>
       <c r="R11" t="n">
-        <v>80.86266746926394</v>
+        <v>80.86266746926391</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8774,22 +8774,22 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
-        <v>482.0924488944969</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>527.6032716709285</v>
+        <v>527.6032716709284</v>
       </c>
       <c r="N12" t="n">
-        <v>513.4480050650975</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>364.0920616912233</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>55.65368102015129</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>219.8255997236959</v>
+        <v>19.68620585054666</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L14" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>246.0054078925391</v>
       </c>
       <c r="N14" t="n">
-        <v>534.1698571194229</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P14" t="n">
-        <v>351.4235138654091</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
-        <v>18.50923894204723</v>
+        <v>18.5092389420472</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9005,22 +9005,22 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>27.16890939366162</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>527.6032716709285</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>332.6252912966972</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>512.0210150597484</v>
+        <v>409.6028844676547</v>
       </c>
       <c r="P15" t="n">
         <v>414.0015992319183</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>19.68620585054667</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
         <v>421.3890363425141</v>
@@ -9172,22 +9172,22 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M17" t="n">
-        <v>539.1933793733258</v>
+        <v>172.1431426142478</v>
       </c>
       <c r="N17" t="n">
-        <v>129.7190275077545</v>
+        <v>534.1698571194229</v>
       </c>
       <c r="O17" t="n">
-        <v>495.0402356415689</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>18.50923894204723</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R17" t="n">
-        <v>80.86266746926393</v>
+        <v>80.86266746926391</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,22 +9242,22 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>27.16890939366162</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
-        <v>482.0924488944969</v>
+        <v>379.6743183024032</v>
       </c>
       <c r="M18" t="n">
-        <v>527.6032716709285</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>18.74904934559596</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
         <v>414.0015992319183</v>
@@ -9403,28 +9403,28 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L20" t="n">
-        <v>542.9595789155856</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>534.1698571194229</v>
+        <v>335.8940223847598</v>
       </c>
       <c r="O20" t="n">
-        <v>432.6941072496639</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P20" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
-        <v>18.50923894204723</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R20" t="n">
-        <v>80.86266746926393</v>
+        <v>80.86266746926391</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,28 +9479,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>27.16890939366162</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>126.5837021342743</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>513.4480050650975</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>512.0210150597484</v>
+        <v>409.6028844676547</v>
       </c>
       <c r="P21" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>11.20488093036023</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9716,7 +9716,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>27.16890939366162</v>
+        <v>61.50021535043741</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>296.2268990830194</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9737,7 +9737,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>11.20488093036023</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9953,28 +9953,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>27.16890939366162</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
-        <v>605.4165828749999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>623.1450866466196</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>512.0210150597484</v>
+        <v>409.6028844676545</v>
       </c>
       <c r="P27" t="n">
-        <v>307.5640858041676</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>11.20488093036023</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10135,7 +10135,7 @@
         <v>276.0094878578761</v>
       </c>
       <c r="R29" t="n">
-        <v>85.4313458348778</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,13 +10193,13 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
-        <v>343.8048081163522</v>
+        <v>241.3866775242581</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>159.4774625341493</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>11.20488093036023</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10427,28 +10427,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>27.16890939366162</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>605.4165828749999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>448.6167235562901</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>512.0210150597484</v>
+        <v>409.6028844676545</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>11.20488093036023</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10588,19 +10588,19 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K35" t="n">
-        <v>54.33879958343637</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L35" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M35" t="n">
-        <v>539.1933793733258</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>534.1698571194229</v>
+        <v>211.2727640921024</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10667,19 +10667,19 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
-        <v>527.6032716709285</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>513.4480050650975</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>194.4488647424784</v>
+        <v>409.6028844676547</v>
       </c>
       <c r="P36" t="n">
         <v>414.0015992319183</v>
@@ -10825,25 +10825,25 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
-        <v>421.3890363425141</v>
+        <v>175.1938583338349</v>
       </c>
       <c r="L38" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M38" t="n">
-        <v>468.7730130079314</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>534.1698571194229</v>
       </c>
       <c r="O38" t="n">
-        <v>495.0402356415689</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q38" t="n">
-        <v>18.50923894204723</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R38" t="n">
         <v>80.86266746926393</v>
@@ -10901,28 +10901,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>27.16890939366162</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>343.8048081163522</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
         <v>527.6032716709285</v>
       </c>
       <c r="N39" t="n">
-        <v>250.7160763065885</v>
+        <v>225.804420913079</v>
       </c>
       <c r="O39" t="n">
-        <v>512.0210150597484</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>11.20488093036023</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>219.8255997236959</v>
+        <v>19.68620585054667</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>16.93820673084582</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M41" t="n">
         <v>539.1933793733258</v>
@@ -11077,7 +11077,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P41" t="n">
-        <v>359.7583917732824</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>18.50923894204723</v>
@@ -11141,25 +11141,25 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
-        <v>527.6032716709285</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>513.4480050650975</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>512.0210150597484</v>
+        <v>409.6028844676552</v>
       </c>
       <c r="P42" t="n">
-        <v>358.3250420408914</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>11.20488093036023</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11296,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>19.68620585054667</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L44" t="n">
-        <v>141.559465023504</v>
+        <v>331.3253440191472</v>
       </c>
       <c r="M44" t="n">
-        <v>539.1933793733258</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>534.1698571194229</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>495.0402356415689</v>
@@ -11317,10 +11317,10 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q44" t="n">
-        <v>18.50923894204723</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R44" t="n">
-        <v>80.86266746926393</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,28 +11375,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>27.16890939366162</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>81.07287935784314</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>527.6032716709285</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>513.4480050650975</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>512.0210150597484</v>
+        <v>409.6028844676547</v>
       </c>
       <c r="P45" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>11.20488093036023</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C11" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F11" t="n">
-        <v>372.507699199749</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>314.1187622463967</v>
+        <v>185.1354588249885</v>
       </c>
       <c r="I11" t="n">
         <v>113.2135059350945</v>
@@ -23311,10 +23311,10 @@
         <v>151.1477904266869</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>215.5437961396617</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>252.2163858692724</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,19 +23427,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>151.7918468374337</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>122.51026349524</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>11.84781302200415</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>117.7483858916557</v>
       </c>
       <c r="S13" t="n">
-        <v>199.8372693753694</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>170.8134135853994</v>
+        <v>227.9699409453102</v>
       </c>
       <c r="U13" t="n">
         <v>284.2816066131464</v>
@@ -23481,10 +23481,10 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X13" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>219.8148072196457</v>
+        <v>218.3011460254038</v>
       </c>
     </row>
     <row r="14">
@@ -23497,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>394.6535574975221</v>
       </c>
       <c r="G14" t="n">
-        <v>410.4417335069359</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>314.1187622463967</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.72608419959754</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D16" t="n">
-        <v>151.5411742405149</v>
+        <v>140.262384510968</v>
       </c>
       <c r="E16" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.5571585973424</v>
       </c>
       <c r="H16" t="n">
-        <v>121.3074172338005</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>122.51026349524</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>117.7483858916557</v>
       </c>
       <c r="S16" t="n">
-        <v>199.8372693753694</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>227.9699409453102</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>284.2816066131464</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>311.5244953033201</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23743,10 +23743,10 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F17" t="n">
-        <v>410.0096787829314</v>
+        <v>190.6415061815748</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.4417335069359</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>151.1477904266869</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X17" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y17" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23892,28 +23892,28 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>115.0707177631261</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>151.7918468374337</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>122.51026349524</v>
       </c>
       <c r="J19" t="n">
-        <v>11.84781302200416</v>
+        <v>11.84781302200415</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>117.7483858916557</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>199.8372693753694</v>
       </c>
       <c r="T19" t="n">
         <v>227.9699409453102</v>
@@ -23949,16 +23949,16 @@
         <v>284.2816066131464</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X19" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y19" t="n">
-        <v>219.8148072196457</v>
+        <v>211.072268484247</v>
       </c>
     </row>
     <row r="20">
@@ -23977,13 +23977,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F20" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>204.4300510719006</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>151.1477904266869</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>215.5437961396617</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>252.2163858692724</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>279.2725666653063</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>145.5360390969283</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -24147,10 +24147,10 @@
         <v>151.7918468374337</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>122.51026349524</v>
       </c>
       <c r="J22" t="n">
-        <v>11.84781302200416</v>
+        <v>11.84781302200415</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>227.9699409453102</v>
       </c>
       <c r="U22" t="n">
-        <v>284.2816066131464</v>
+        <v>177.4825645940079</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24217,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>314.1187622463967</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>113.2135059350945</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24265,13 +24265,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>0.9826149940174105</v>
       </c>
       <c r="X23" t="n">
-        <v>351.9146857555954</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>104.3655651054143</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C25" t="n">
         <v>167.9198098429365</v>
@@ -24375,19 +24375,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.5571585973424</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>151.7918468374337</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>122.51026349524</v>
       </c>
       <c r="J25" t="n">
-        <v>11.84781302200416</v>
+        <v>11.84781302200415</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24414,22 +24414,22 @@
         <v>117.7483858916557</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>199.8372693753694</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>284.2816066131464</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>228.939939463578</v>
+        <v>185.6376983196726</v>
       </c>
       <c r="Y25" t="n">
         <v>219.8148072196457</v>
@@ -24448,22 +24448,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E26" t="n">
-        <v>328.0711134751</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.4417335069359</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>113.2135059350945</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>151.1477904266869</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>105.0558254952066</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E28" t="n">
-        <v>1.008516373827547</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>30.24951090153873</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>151.7918468374337</v>
       </c>
       <c r="I28" t="n">
-        <v>122.51026349524</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>11.84781302200416</v>
@@ -24663,13 +24663,13 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y28" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24682,13 +24682,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D29" t="n">
-        <v>327.7684096269892</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>410.0096787829314</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>314.1187622463967</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>26.37308899502642</v>
       </c>
     </row>
     <row r="30">
@@ -24852,7 +24852,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G31" t="n">
-        <v>166.5571585973424</v>
+        <v>95.1222458834965</v>
       </c>
       <c r="H31" t="n">
         <v>151.7918468374337</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>227.9699409453102</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.05499798333483</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24931,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.4417335069359</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>238.2691250964966</v>
       </c>
       <c r="I32" t="n">
         <v>113.2135059350945</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>151.1477904266869</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>215.5437961396617</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>259.0781850155385</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25080,25 +25080,25 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
         <v>166.5571585973424</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>151.7918468374337</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>122.51026349524</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>11.84781302200416</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25131,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>284.2816066131464</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>228.939939463578</v>
+        <v>185.6376983196728</v>
       </c>
       <c r="Y34" t="n">
-        <v>89.94404071362536</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="35">
@@ -25162,10 +25162,10 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F35" t="n">
-        <v>81.82977195376122</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>410.4417335069359</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>113.2135059350945</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25213,13 +25213,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>137.8148965569196</v>
       </c>
       <c r="Y35" t="n">
         <v>389.6064368699203</v>
@@ -25317,7 +25317,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
         <v>150.4889240962943</v>
@@ -25326,16 +25326,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.5571585973424</v>
       </c>
       <c r="H37" t="n">
-        <v>88.6950983381585</v>
+        <v>108.4896056935284</v>
       </c>
       <c r="I37" t="n">
         <v>122.51026349524</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>11.84781302200416</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>117.7483858916557</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>199.8372693753694</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9699409453102</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="38">
@@ -25396,22 +25396,22 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D38" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F38" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.4417335069359</v>
+        <v>52.21584106290607</v>
       </c>
       <c r="H38" t="n">
-        <v>179.9888825170252</v>
+        <v>314.1187622463967</v>
       </c>
       <c r="I38" t="n">
-        <v>113.2135059350945</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>151.1477904266869</v>
       </c>
       <c r="T38" t="n">
         <v>215.5437961396617</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>252.2163858692724</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y38" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>111.3561333234633</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
         <v>150.9558484244806</v>
@@ -25566,10 +25566,10 @@
         <v>166.5571585973424</v>
       </c>
       <c r="H40" t="n">
-        <v>151.7918468374337</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>122.51026349524</v>
       </c>
       <c r="J40" t="n">
         <v>11.84781302200416</v>
@@ -25599,13 +25599,13 @@
         <v>117.7483858916557</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>199.8372693753694</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9699409453102</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>32.08146929390279</v>
       </c>
       <c r="V40" t="n">
         <v>258.1279513971616</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>220.7691010103367</v>
       </c>
       <c r="D41" t="n">
         <v>369.0957251250487</v>
@@ -25639,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.4417335069359</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>314.1187622463967</v>
       </c>
       <c r="I41" t="n">
         <v>113.2135059350945</v>
@@ -25684,13 +25684,13 @@
         <v>215.5437961396617</v>
       </c>
       <c r="U41" t="n">
-        <v>16.85240904802015</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D43" t="n">
-        <v>151.5411742405149</v>
+        <v>53.88403509241277</v>
       </c>
       <c r="E43" t="n">
         <v>150.4889240962943</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>10.94934387251766</v>
+        <v>117.7483858916557</v>
       </c>
       <c r="S43" t="n">
         <v>199.8372693753694</v>
       </c>
       <c r="T43" t="n">
-        <v>227.9699409453102</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>284.2816066131464</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>203.1477855777796</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>77.12307136083001</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.4417335069359</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>314.1187622463967</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>113.2135059350945</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>151.1477904266869</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>215.5437961396617</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>252.2163858692724</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W44" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X44" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D46" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.5571585973424</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>151.7918468374337</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>117.7483858916557</v>
       </c>
       <c r="S46" t="n">
-        <v>199.8372693753694</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>166.4976733747309</v>
       </c>
       <c r="U46" t="n">
         <v>284.2816066131464</v>
@@ -26088,10 +26088,10 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X46" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>123.8761786215039</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>601395.016249211</v>
+        <v>601395.0162492108</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>737776.014374959</v>
+        <v>737776.0143749593</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>737776.0143749593</v>
+        <v>737776.014374959</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>737776.0143749592</v>
+        <v>737776.014374959</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>737776.0143749593</v>
+        <v>737776.014374959</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>601395.0162492108</v>
+        <v>601395.016249211</v>
       </c>
     </row>
     <row r="14">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>594789.383586399</v>
+        <v>594789.3835863988</v>
       </c>
       <c r="C2" t="n">
         <v>594789.383586399</v>
       </c>
       <c r="D2" t="n">
-        <v>594789.3835863984</v>
+        <v>594789.3835863991</v>
       </c>
       <c r="E2" t="n">
         <v>405982.5349743366</v>
       </c>
       <c r="F2" t="n">
+        <v>405982.5349743366</v>
+      </c>
+      <c r="G2" t="n">
         <v>405982.5349743367</v>
-      </c>
-      <c r="G2" t="n">
-        <v>405982.5349743369</v>
       </c>
       <c r="H2" t="n">
         <v>405982.5349743366</v>
@@ -26337,22 +26337,22 @@
         <v>488486.6317122326</v>
       </c>
       <c r="J2" t="n">
-        <v>488486.6317122328</v>
+        <v>488486.6317122325</v>
       </c>
       <c r="K2" t="n">
-        <v>488486.6317122326</v>
+        <v>488486.6317122325</v>
       </c>
       <c r="L2" t="n">
-        <v>488486.6317122327</v>
+        <v>488486.6317122325</v>
       </c>
       <c r="M2" t="n">
+        <v>405982.5349743364</v>
+      </c>
+      <c r="N2" t="n">
         <v>405982.5349743366</v>
       </c>
-      <c r="N2" t="n">
-        <v>405982.5349743367</v>
-      </c>
       <c r="O2" t="n">
-        <v>405982.5349743369</v>
+        <v>405982.5349743364</v>
       </c>
       <c r="P2" t="n">
         <v>405982.5349743367</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3354.473582772305</v>
+        <v>3354.473582772306</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>91641.48485225283</v>
+        <v>91641.48485225286</v>
       </c>
       <c r="J3" t="n">
-        <v>2618.972395481323</v>
+        <v>2618.972395481364</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>65044.25609034245</v>
+        <v>65044.25609034244</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>387412.7835192765</v>
+        <v>387412.7835192766</v>
       </c>
       <c r="C4" t="n">
-        <v>387412.7835192765</v>
+        <v>387412.7835192766</v>
       </c>
       <c r="D4" t="n">
         <v>387412.7835192765</v>
       </c>
       <c r="E4" t="n">
-        <v>91129.18209129261</v>
+        <v>91129.18209129258</v>
       </c>
       <c r="F4" t="n">
         <v>91129.18209129258</v>
       </c>
       <c r="G4" t="n">
-        <v>91129.18209129259</v>
+        <v>91129.18209129258</v>
       </c>
       <c r="H4" t="n">
-        <v>91129.18209129259</v>
+        <v>91129.18209129258</v>
       </c>
       <c r="I4" t="n">
         <v>123877.6312837393</v>
@@ -26453,10 +26453,10 @@
         <v>91129.18209129258</v>
       </c>
       <c r="N4" t="n">
-        <v>91129.18209129259</v>
+        <v>91129.18209129258</v>
       </c>
       <c r="O4" t="n">
-        <v>91129.18209129259</v>
+        <v>91129.18209129258</v>
       </c>
       <c r="P4" t="n">
         <v>91129.18209129259</v>
@@ -26478,16 +26478,16 @@
         <v>34236.18847000223</v>
       </c>
       <c r="E5" t="n">
-        <v>45571.43105694893</v>
+        <v>45571.43105694892</v>
       </c>
       <c r="F5" t="n">
-        <v>45571.43105694893</v>
+        <v>45571.43105694892</v>
       </c>
       <c r="G5" t="n">
-        <v>45571.43105694893</v>
+        <v>45571.43105694892</v>
       </c>
       <c r="H5" t="n">
-        <v>45571.43105694893</v>
+        <v>45571.43105694892</v>
       </c>
       <c r="I5" t="n">
         <v>66524.27900433546</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>169785.938014348</v>
+        <v>169782.0908112318</v>
       </c>
       <c r="C6" t="n">
-        <v>173140.4115971203</v>
+        <v>173136.5643940043</v>
       </c>
       <c r="D6" t="n">
-        <v>173140.4115971197</v>
+        <v>173136.5643940045</v>
       </c>
       <c r="E6" t="n">
-        <v>-211557.2541274221</v>
+        <v>-217651.6448341528</v>
       </c>
       <c r="F6" t="n">
-        <v>269281.9218260952</v>
+        <v>263187.5311193644</v>
       </c>
       <c r="G6" t="n">
-        <v>269281.9218260953</v>
+        <v>263187.5311193644</v>
       </c>
       <c r="H6" t="n">
-        <v>269281.9218260951</v>
+        <v>263187.5311193643</v>
       </c>
       <c r="I6" t="n">
-        <v>206443.236571905</v>
+        <v>203010.2683405903</v>
       </c>
       <c r="J6" t="n">
-        <v>295465.7490286767</v>
+        <v>292032.7807973617</v>
       </c>
       <c r="K6" t="n">
-        <v>298084.7214241578</v>
+        <v>294651.753192843</v>
       </c>
       <c r="L6" t="n">
-        <v>298084.721424158</v>
+        <v>294651.753192843</v>
       </c>
       <c r="M6" t="n">
-        <v>204237.6657357527</v>
+        <v>198143.2750290217</v>
       </c>
       <c r="N6" t="n">
-        <v>269281.9218260952</v>
+        <v>263187.5311193643</v>
       </c>
       <c r="O6" t="n">
-        <v>269281.9218260953</v>
+        <v>263187.5311193642</v>
       </c>
       <c r="P6" t="n">
-        <v>269281.9218260952</v>
+        <v>263187.5311193644</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>373.4267768877273</v>
+        <v>373.4267768877274</v>
       </c>
       <c r="F3" t="n">
         <v>373.4267768877274</v>
@@ -26798,25 +26798,25 @@
         <v>10.00967878293136</v>
       </c>
       <c r="E4" t="n">
-        <v>615.6369625131</v>
+        <v>615.6369625130999</v>
       </c>
       <c r="F4" t="n">
-        <v>615.6369625131</v>
+        <v>615.6369625130999</v>
       </c>
       <c r="G4" t="n">
-        <v>615.6369625131</v>
+        <v>615.6369625130999</v>
       </c>
       <c r="H4" t="n">
-        <v>615.6369625131</v>
+        <v>615.6369625130999</v>
       </c>
       <c r="I4" t="n">
+        <v>960.2561721740626</v>
+      </c>
+      <c r="J4" t="n">
         <v>960.2561721740625</v>
       </c>
-      <c r="J4" t="n">
-        <v>960.2561721740626</v>
-      </c>
       <c r="K4" t="n">
-        <v>960.2561721740626</v>
+        <v>960.2561721740625</v>
       </c>
       <c r="L4" t="n">
         <v>960.2561721740625</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>373.4267768877273</v>
+        <v>373.4267768877274</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>605.6272837301686</v>
+        <v>605.6272837301685</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>344.6192096609626</v>
+        <v>344.6192096609627</v>
       </c>
       <c r="J4" t="n">
-        <v>10.00967878293147</v>
+        <v>10.00967878293163</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>605.6272837301686</v>
+        <v>605.6272837301685</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>176.5401605439436</v>
+        <v>175.3470068330182</v>
       </c>
       <c r="T2" t="n">
-        <v>212.1056780233676</v>
+        <v>213.298831734293</v>
       </c>
       <c r="U2" t="n">
         <v>252.3364829231459</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>147.8155695705169</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
         <v>160.0866360314548</v>
@@ -27466,10 +27466,10 @@
         <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>135.5480510607661</v>
       </c>
       <c r="F3" t="n">
-        <v>133.3468600696244</v>
+        <v>123.337181286693</v>
       </c>
       <c r="G3" t="n">
         <v>127.4412149769483</v>
@@ -27478,7 +27478,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>57.68878367390825</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.17674743307231</v>
+        <v>50.36990114399772</v>
       </c>
       <c r="S3" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>176.7885740127433</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
         <v>216.3098444776729</v>
@@ -27526,7 +27526,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
-        <v>181.779588014911</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="4">
@@ -27545,7 +27545,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E4" t="n">
-        <v>150.4889240962943</v>
+        <v>141.6723990242884</v>
       </c>
       <c r="F4" t="n">
         <v>140.9461696415493</v>
@@ -27554,13 +27554,13 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
-        <v>157.7789187685189</v>
+        <v>147.7692399855875</v>
       </c>
       <c r="I4" t="n">
         <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>49.44698741703764</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
-        <v>201.5629861874179</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
         <v>230.8471636524779</v>
@@ -27602,7 +27602,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
-        <v>220.1234143915721</v>
+        <v>218.9302606806466</v>
       </c>
       <c r="Y4" t="n">
         <v>219.8148072196457</v>
@@ -27633,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>320.6765365866578</v>
       </c>
       <c r="I5" t="n">
         <v>171.0890268032919</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>80.91537856709924</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>175.3470068330182</v>
       </c>
       <c r="T5" t="n">
         <v>222.1153568062989</v>
@@ -27684,7 +27684,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>379.596758086989</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="6">
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>157.8252483534483</v>
+        <v>147.8155695705169</v>
       </c>
       <c r="C6" t="n">
         <v>160.0866360314548</v>
@@ -27712,10 +27712,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>88.92880009583757</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>57.68878367390825</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,10 +27742,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.17674743307231</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>141.2618133344558</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
         <v>186.7982527956746</v>
@@ -27757,7 +27757,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
-        <v>228.8930312960917</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
         <v>195.9378182409833</v>
@@ -27779,25 +27779,25 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
-        <v>141.5314954575835</v>
+        <v>142.724649168509</v>
       </c>
       <c r="E7" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9558484244806</v>
+        <v>140.9461696415493</v>
       </c>
       <c r="G7" t="n">
         <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
-        <v>157.7789187685189</v>
+        <v>147.7692399855875</v>
       </c>
       <c r="I7" t="n">
         <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
-        <v>49.44698741703764</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>28.14228914991649</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
         <v>148.0265635717656</v>
@@ -27833,13 +27833,13 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
-        <v>258.1279513971616</v>
+        <v>248.1182726142302</v>
       </c>
       <c r="W7" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X7" t="n">
-        <v>220.1234143915721</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
         <v>219.8148072196457</v>
@@ -27903,10 +27903,10 @@
         <v>79.72222485617382</v>
       </c>
       <c r="S8" t="n">
-        <v>176.5401605439436</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>213.298831734293</v>
       </c>
       <c r="U8" t="n">
         <v>252.3364829231459</v>
@@ -27940,19 +27940,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>136.7412047716915</v>
       </c>
       <c r="F9" t="n">
-        <v>124.5303349976185</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>117.4315361940169</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>88.92880009583757</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>57.68878367390825</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27988,16 +27988,16 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>206.3001656947416</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>238.9027100790231</v>
+        <v>228.8930312960917</v>
       </c>
       <c r="X9" t="n">
-        <v>195.9378182409833</v>
+        <v>185.928139458052</v>
       </c>
       <c r="Y9" t="n">
         <v>190.5961130869169</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>171.7101362146047</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
         <v>157.9101310600051</v>
@@ -28025,7 +28025,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2305511458285</v>
+        <v>157.2208723628971</v>
       </c>
       <c r="H10" t="n">
         <v>157.7789187685189</v>
@@ -28064,7 +28064,7 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>222.030638580472</v>
       </c>
       <c r="U10" t="n">
         <v>284.3183371157911</v>
@@ -28079,7 +28079,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
-        <v>210.9982821476397</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="11">
@@ -31752,31 +31752,31 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.501213173417998</v>
+        <v>1.501213173417999</v>
       </c>
       <c r="H11" t="n">
         <v>15.37429941226708</v>
       </c>
       <c r="I11" t="n">
-        <v>57.87552086819743</v>
+        <v>57.87552086819745</v>
       </c>
       <c r="J11" t="n">
-        <v>127.4135915773859</v>
+        <v>127.413591577386</v>
       </c>
       <c r="K11" t="n">
-        <v>190.9599452081698</v>
+        <v>190.9599452081699</v>
       </c>
       <c r="L11" t="n">
         <v>236.902697864161</v>
       </c>
       <c r="M11" t="n">
-        <v>263.5998976369332</v>
+        <v>263.5998976369333</v>
       </c>
       <c r="N11" t="n">
         <v>267.8652195659072</v>
       </c>
       <c r="O11" t="n">
-        <v>252.9375310727319</v>
+        <v>252.937531072732</v>
       </c>
       <c r="P11" t="n">
         <v>215.8763308539751</v>
@@ -31785,16 +31785,16 @@
         <v>162.114134080943</v>
       </c>
       <c r="R11" t="n">
-        <v>94.30058200471841</v>
+        <v>94.30058200471844</v>
       </c>
       <c r="S11" t="n">
-        <v>34.20889518926267</v>
+        <v>34.20889518926268</v>
       </c>
       <c r="T11" t="n">
-        <v>6.57156066663729</v>
+        <v>6.571560666637293</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1200970538734398</v>
+        <v>0.1200970538734399</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.803219859720772</v>
+        <v>0.8032198597207723</v>
       </c>
       <c r="H12" t="n">
-        <v>7.757412855724299</v>
+        <v>7.757412855724302</v>
       </c>
       <c r="I12" t="n">
-        <v>27.65471885442132</v>
+        <v>27.65471885442133</v>
       </c>
       <c r="J12" t="n">
-        <v>75.88666227300506</v>
+        <v>75.88666227300507</v>
       </c>
       <c r="K12" t="n">
         <v>129.7023928742968</v>
       </c>
       <c r="L12" t="n">
-        <v>174.4008734889334</v>
+        <v>174.4008734889335</v>
       </c>
       <c r="M12" t="n">
         <v>203.5175934038114</v>
       </c>
       <c r="N12" t="n">
-        <v>208.9040985157108</v>
+        <v>208.9040985157109</v>
       </c>
       <c r="O12" t="n">
-        <v>191.1064374134768</v>
+        <v>191.1064374134769</v>
       </c>
       <c r="P12" t="n">
         <v>153.3797642654517</v>
       </c>
       <c r="Q12" t="n">
-        <v>102.5303105145322</v>
+        <v>102.5303105145323</v>
       </c>
       <c r="R12" t="n">
-        <v>49.87008918511953</v>
+        <v>49.87008918511955</v>
       </c>
       <c r="S12" t="n">
-        <v>14.91945660490117</v>
+        <v>14.91945660490118</v>
       </c>
       <c r="T12" t="n">
-        <v>3.237539697734163</v>
+        <v>3.237539697734164</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05284341182373502</v>
+        <v>0.05284341182373504</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,22 +31910,22 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6733925484860656</v>
+        <v>0.6733925484860658</v>
       </c>
       <c r="H13" t="n">
-        <v>5.987071931085206</v>
+        <v>5.987071931085207</v>
       </c>
       <c r="I13" t="n">
-        <v>20.25075045810823</v>
+        <v>20.25075045810824</v>
       </c>
       <c r="J13" t="n">
-        <v>47.60885317796483</v>
+        <v>47.60885317796485</v>
       </c>
       <c r="K13" t="n">
-        <v>78.23597063319924</v>
+        <v>78.23597063319926</v>
       </c>
       <c r="L13" t="n">
-        <v>100.1151067085556</v>
+        <v>100.1151067085557</v>
       </c>
       <c r="M13" t="n">
         <v>105.5573428504112</v>
@@ -31934,25 +31934,25 @@
         <v>103.0474251696905</v>
       </c>
       <c r="O13" t="n">
-        <v>95.18097585328502</v>
+        <v>95.18097585328505</v>
       </c>
       <c r="P13" t="n">
-        <v>81.44376786416922</v>
+        <v>81.44376786416923</v>
       </c>
       <c r="Q13" t="n">
-        <v>56.38744331004683</v>
+        <v>56.38744331004684</v>
       </c>
       <c r="R13" t="n">
-        <v>30.27817768010981</v>
+        <v>30.27817768010982</v>
       </c>
       <c r="S13" t="n">
-        <v>11.73539559497988</v>
+        <v>11.73539559497989</v>
       </c>
       <c r="T13" t="n">
-        <v>2.877222707167734</v>
+        <v>2.877222707167735</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03673050264469453</v>
+        <v>0.03673050264469454</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.501213173417998</v>
+        <v>1.501213173417999</v>
       </c>
       <c r="H14" t="n">
         <v>15.37429941226708</v>
       </c>
       <c r="I14" t="n">
-        <v>57.87552086819744</v>
+        <v>57.87552086819745</v>
       </c>
       <c r="J14" t="n">
         <v>127.413591577386</v>
@@ -32022,16 +32022,16 @@
         <v>162.114134080943</v>
       </c>
       <c r="R14" t="n">
-        <v>94.30058200471842</v>
+        <v>94.30058200471844</v>
       </c>
       <c r="S14" t="n">
-        <v>34.20889518926267</v>
+        <v>34.20889518926268</v>
       </c>
       <c r="T14" t="n">
-        <v>6.571560666637291</v>
+        <v>6.571560666637293</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1200970538734398</v>
+        <v>0.1200970538734399</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8032198597207721</v>
+        <v>0.8032198597207723</v>
       </c>
       <c r="H15" t="n">
-        <v>7.757412855724301</v>
+        <v>7.757412855724302</v>
       </c>
       <c r="I15" t="n">
         <v>27.65471885442133</v>
@@ -32089,7 +32089,7 @@
         <v>203.5175934038114</v>
       </c>
       <c r="N15" t="n">
-        <v>208.9040985157108</v>
+        <v>208.9040985157109</v>
       </c>
       <c r="O15" t="n">
         <v>191.1064374134769</v>
@@ -32101,16 +32101,16 @@
         <v>102.5303105145323</v>
       </c>
       <c r="R15" t="n">
-        <v>49.87008918511954</v>
+        <v>49.87008918511955</v>
       </c>
       <c r="S15" t="n">
-        <v>14.91945660490117</v>
+        <v>14.91945660490118</v>
       </c>
       <c r="T15" t="n">
         <v>3.237539697734164</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05284341182373503</v>
+        <v>0.05284341182373504</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,7 +32147,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6733925484860657</v>
+        <v>0.6733925484860658</v>
       </c>
       <c r="H16" t="n">
         <v>5.987071931085207</v>
@@ -32156,13 +32156,13 @@
         <v>20.25075045810824</v>
       </c>
       <c r="J16" t="n">
-        <v>47.60885317796484</v>
+        <v>47.60885317796485</v>
       </c>
       <c r="K16" t="n">
         <v>78.23597063319926</v>
       </c>
       <c r="L16" t="n">
-        <v>100.1151067085556</v>
+        <v>100.1151067085557</v>
       </c>
       <c r="M16" t="n">
         <v>105.5573428504112</v>
@@ -32171,13 +32171,13 @@
         <v>103.0474251696905</v>
       </c>
       <c r="O16" t="n">
-        <v>95.18097585328503</v>
+        <v>95.18097585328505</v>
       </c>
       <c r="P16" t="n">
-        <v>81.44376786416922</v>
+        <v>81.44376786416923</v>
       </c>
       <c r="Q16" t="n">
-        <v>56.38744331004683</v>
+        <v>56.38744331004684</v>
       </c>
       <c r="R16" t="n">
         <v>30.27817768010982</v>
@@ -32186,10 +32186,10 @@
         <v>11.73539559497989</v>
       </c>
       <c r="T16" t="n">
-        <v>2.877222707167734</v>
+        <v>2.877222707167735</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03673050264469453</v>
+        <v>0.03673050264469454</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.501213173417998</v>
+        <v>1.501213173417999</v>
       </c>
       <c r="H17" t="n">
         <v>15.37429941226708</v>
       </c>
       <c r="I17" t="n">
-        <v>57.87552086819744</v>
+        <v>57.87552086819745</v>
       </c>
       <c r="J17" t="n">
         <v>127.413591577386</v>
@@ -32259,16 +32259,16 @@
         <v>162.114134080943</v>
       </c>
       <c r="R17" t="n">
-        <v>94.30058200471842</v>
+        <v>94.30058200471844</v>
       </c>
       <c r="S17" t="n">
-        <v>34.20889518926267</v>
+        <v>34.20889518926268</v>
       </c>
       <c r="T17" t="n">
-        <v>6.571560666637291</v>
+        <v>6.571560666637293</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1200970538734398</v>
+        <v>0.1200970538734399</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8032198597207721</v>
+        <v>0.8032198597207723</v>
       </c>
       <c r="H18" t="n">
-        <v>7.757412855724301</v>
+        <v>7.757412855724302</v>
       </c>
       <c r="I18" t="n">
         <v>27.65471885442133</v>
@@ -32326,7 +32326,7 @@
         <v>203.5175934038114</v>
       </c>
       <c r="N18" t="n">
-        <v>208.9040985157108</v>
+        <v>208.9040985157109</v>
       </c>
       <c r="O18" t="n">
         <v>191.1064374134769</v>
@@ -32338,16 +32338,16 @@
         <v>102.5303105145323</v>
       </c>
       <c r="R18" t="n">
-        <v>49.87008918511954</v>
+        <v>49.87008918511955</v>
       </c>
       <c r="S18" t="n">
-        <v>14.91945660490117</v>
+        <v>14.91945660490118</v>
       </c>
       <c r="T18" t="n">
         <v>3.237539697734164</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05284341182373503</v>
+        <v>0.05284341182373504</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,7 +32384,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6733925484860657</v>
+        <v>0.6733925484860658</v>
       </c>
       <c r="H19" t="n">
         <v>5.987071931085207</v>
@@ -32393,13 +32393,13 @@
         <v>20.25075045810824</v>
       </c>
       <c r="J19" t="n">
-        <v>47.60885317796484</v>
+        <v>47.60885317796485</v>
       </c>
       <c r="K19" t="n">
         <v>78.23597063319926</v>
       </c>
       <c r="L19" t="n">
-        <v>100.1151067085556</v>
+        <v>100.1151067085557</v>
       </c>
       <c r="M19" t="n">
         <v>105.5573428504112</v>
@@ -32408,13 +32408,13 @@
         <v>103.0474251696905</v>
       </c>
       <c r="O19" t="n">
-        <v>95.18097585328503</v>
+        <v>95.18097585328505</v>
       </c>
       <c r="P19" t="n">
-        <v>81.44376786416922</v>
+        <v>81.44376786416923</v>
       </c>
       <c r="Q19" t="n">
-        <v>56.38744331004683</v>
+        <v>56.38744331004684</v>
       </c>
       <c r="R19" t="n">
         <v>30.27817768010982</v>
@@ -32423,10 +32423,10 @@
         <v>11.73539559497989</v>
       </c>
       <c r="T19" t="n">
-        <v>2.877222707167734</v>
+        <v>2.877222707167735</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03673050264469453</v>
+        <v>0.03673050264469454</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.501213173417998</v>
+        <v>1.501213173417999</v>
       </c>
       <c r="H20" t="n">
         <v>15.37429941226708</v>
       </c>
       <c r="I20" t="n">
-        <v>57.87552086819744</v>
+        <v>57.87552086819745</v>
       </c>
       <c r="J20" t="n">
         <v>127.413591577386</v>
@@ -32496,16 +32496,16 @@
         <v>162.114134080943</v>
       </c>
       <c r="R20" t="n">
-        <v>94.30058200471842</v>
+        <v>94.30058200471844</v>
       </c>
       <c r="S20" t="n">
-        <v>34.20889518926267</v>
+        <v>34.20889518926268</v>
       </c>
       <c r="T20" t="n">
-        <v>6.571560666637291</v>
+        <v>6.571560666637293</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1200970538734398</v>
+        <v>0.1200970538734399</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8032198597207721</v>
+        <v>0.8032198597207723</v>
       </c>
       <c r="H21" t="n">
-        <v>7.757412855724301</v>
+        <v>7.757412855724302</v>
       </c>
       <c r="I21" t="n">
         <v>27.65471885442133</v>
@@ -32563,7 +32563,7 @@
         <v>203.5175934038114</v>
       </c>
       <c r="N21" t="n">
-        <v>208.9040985157108</v>
+        <v>208.9040985157109</v>
       </c>
       <c r="O21" t="n">
         <v>191.1064374134769</v>
@@ -32575,16 +32575,16 @@
         <v>102.5303105145323</v>
       </c>
       <c r="R21" t="n">
-        <v>49.87008918511954</v>
+        <v>49.87008918511955</v>
       </c>
       <c r="S21" t="n">
-        <v>14.91945660490117</v>
+        <v>14.91945660490118</v>
       </c>
       <c r="T21" t="n">
         <v>3.237539697734164</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05284341182373503</v>
+        <v>0.05284341182373504</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,7 +32621,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6733925484860657</v>
+        <v>0.6733925484860658</v>
       </c>
       <c r="H22" t="n">
         <v>5.987071931085207</v>
@@ -32630,13 +32630,13 @@
         <v>20.25075045810824</v>
       </c>
       <c r="J22" t="n">
-        <v>47.60885317796484</v>
+        <v>47.60885317796485</v>
       </c>
       <c r="K22" t="n">
         <v>78.23597063319926</v>
       </c>
       <c r="L22" t="n">
-        <v>100.1151067085556</v>
+        <v>100.1151067085557</v>
       </c>
       <c r="M22" t="n">
         <v>105.5573428504112</v>
@@ -32645,13 +32645,13 @@
         <v>103.0474251696905</v>
       </c>
       <c r="O22" t="n">
-        <v>95.18097585328503</v>
+        <v>95.18097585328505</v>
       </c>
       <c r="P22" t="n">
-        <v>81.44376786416922</v>
+        <v>81.44376786416923</v>
       </c>
       <c r="Q22" t="n">
-        <v>56.38744331004683</v>
+        <v>56.38744331004684</v>
       </c>
       <c r="R22" t="n">
         <v>30.27817768010982</v>
@@ -32660,10 +32660,10 @@
         <v>11.73539559497989</v>
       </c>
       <c r="T22" t="n">
-        <v>2.877222707167734</v>
+        <v>2.877222707167735</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03673050264469453</v>
+        <v>0.03673050264469454</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.501213173417998</v>
+        <v>1.501213173417999</v>
       </c>
       <c r="H23" t="n">
         <v>15.37429941226708</v>
       </c>
       <c r="I23" t="n">
-        <v>57.87552086819744</v>
+        <v>57.87552086819745</v>
       </c>
       <c r="J23" t="n">
         <v>127.413591577386</v>
@@ -32733,16 +32733,16 @@
         <v>162.114134080943</v>
       </c>
       <c r="R23" t="n">
-        <v>94.30058200471842</v>
+        <v>94.30058200471844</v>
       </c>
       <c r="S23" t="n">
-        <v>34.20889518926267</v>
+        <v>34.20889518926268</v>
       </c>
       <c r="T23" t="n">
-        <v>6.571560666637291</v>
+        <v>6.571560666637293</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1200970538734398</v>
+        <v>0.1200970538734399</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8032198597207721</v>
+        <v>0.8032198597207723</v>
       </c>
       <c r="H24" t="n">
-        <v>7.757412855724301</v>
+        <v>7.757412855724302</v>
       </c>
       <c r="I24" t="n">
         <v>27.65471885442133</v>
@@ -32800,7 +32800,7 @@
         <v>203.5175934038114</v>
       </c>
       <c r="N24" t="n">
-        <v>208.9040985157108</v>
+        <v>208.9040985157109</v>
       </c>
       <c r="O24" t="n">
         <v>191.1064374134769</v>
@@ -32812,16 +32812,16 @@
         <v>102.5303105145323</v>
       </c>
       <c r="R24" t="n">
-        <v>49.87008918511954</v>
+        <v>49.87008918511955</v>
       </c>
       <c r="S24" t="n">
-        <v>14.91945660490117</v>
+        <v>14.91945660490118</v>
       </c>
       <c r="T24" t="n">
         <v>3.237539697734164</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05284341182373503</v>
+        <v>0.05284341182373504</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,7 +32858,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6733925484860657</v>
+        <v>0.6733925484860658</v>
       </c>
       <c r="H25" t="n">
         <v>5.987071931085207</v>
@@ -32867,13 +32867,13 @@
         <v>20.25075045810824</v>
       </c>
       <c r="J25" t="n">
-        <v>47.60885317796484</v>
+        <v>47.60885317796485</v>
       </c>
       <c r="K25" t="n">
         <v>78.23597063319926</v>
       </c>
       <c r="L25" t="n">
-        <v>100.1151067085556</v>
+        <v>100.1151067085557</v>
       </c>
       <c r="M25" t="n">
         <v>105.5573428504112</v>
@@ -32882,13 +32882,13 @@
         <v>103.0474251696905</v>
       </c>
       <c r="O25" t="n">
-        <v>95.18097585328503</v>
+        <v>95.18097585328505</v>
       </c>
       <c r="P25" t="n">
-        <v>81.44376786416922</v>
+        <v>81.44376786416923</v>
       </c>
       <c r="Q25" t="n">
-        <v>56.38744331004683</v>
+        <v>56.38744331004684</v>
       </c>
       <c r="R25" t="n">
         <v>30.27817768010982</v>
@@ -32897,10 +32897,10 @@
         <v>11.73539559497989</v>
       </c>
       <c r="T25" t="n">
-        <v>2.877222707167734</v>
+        <v>2.877222707167735</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03673050264469453</v>
+        <v>0.03673050264469454</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34707,19 +34707,19 @@
         <v>10.00967878293136</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>9.605247316954337</v>
+      </c>
+      <c r="Q2" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="N2" t="n">
-        <v>9.605247316954337</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34789,7 +34789,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="O3" t="n">
         <v>10.00967878293136</v>
@@ -34798,7 +34798,7 @@
         <v>10.00967878293136</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9.605247316954339</v>
+      </c>
+      <c r="N4" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="L4" t="n">
+      <c r="O4" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="M4" t="n">
+      <c r="P4" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>9.605247316954333</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="K5" t="n">
-        <v>9.605247316954339</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="L5" t="n">
+        <v>9.605247316954337</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="M5" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="N5" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35020,22 +35020,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>9.605247316954339</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>9.605247316954337</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,16 +35096,16 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>9.605247316954339</v>
+      </c>
+      <c r="M7" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
       <c r="N7" t="n">
-        <v>9.605247316954339</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>10.00967878293136</v>
@@ -35175,25 +35175,25 @@
         <v>10.00967878293136</v>
       </c>
       <c r="K8" t="n">
-        <v>9.605247316954339</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>9.605247316954337</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="N8" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35263,7 +35263,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>9.605247316954339</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="O9" t="n">
         <v>10.00967878293136</v>
@@ -35272,7 +35272,7 @@
         <v>10.00967878293136</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.00967878293136</v>
+        <v>9.605247316954333</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="M10" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="N10" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>10.00967878293136</v>
+        <v>9.605247316954333</v>
       </c>
       <c r="P10" t="n">
-        <v>9.605247316954333</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>200.1393938731492</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>433.5259775766373</v>
@@ -35418,19 +35418,19 @@
         <v>588.3020646166319</v>
       </c>
       <c r="M11" t="n">
-        <v>76.44358313977415</v>
+        <v>76.44358313977426</v>
       </c>
       <c r="N11" t="n">
-        <v>81.46710539367706</v>
+        <v>332.0411916518295</v>
       </c>
       <c r="O11" t="n">
-        <v>353.9574134033558</v>
+        <v>561.0229699341804</v>
       </c>
       <c r="P11" t="n">
-        <v>446.337842425746</v>
+        <v>446.3378424257461</v>
       </c>
       <c r="Q11" t="n">
-        <v>257.5002489158288</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>361.5110318239823</v>
       </c>
       <c r="L12" t="n">
-        <v>543.9178888122826</v>
+        <v>61.8254399177857</v>
       </c>
       <c r="M12" t="n">
-        <v>615.6369625131</v>
+        <v>615.6369625130999</v>
       </c>
       <c r="N12" t="n">
-        <v>615.6369625131</v>
+        <v>102.1889574480026</v>
       </c>
       <c r="O12" t="n">
-        <v>75.24698880236573</v>
+        <v>439.3390504935891</v>
       </c>
       <c r="P12" t="n">
-        <v>44.52555824130833</v>
+        <v>458.5271574732267</v>
       </c>
       <c r="Q12" t="n">
-        <v>44.44880008979104</v>
+        <v>261.8955931262436</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>112.1795946176875</v>
+        <v>112.1795946176876</v>
       </c>
       <c r="L13" t="n">
         <v>201.7384192340703</v>
@@ -35582,13 +35582,13 @@
         <v>222.6659521894888</v>
       </c>
       <c r="O13" t="n">
-        <v>194.6392046368099</v>
+        <v>194.63920463681</v>
       </c>
       <c r="P13" t="n">
         <v>145.0482968824902</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.23547537719897</v>
+        <v>18.23547537719899</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>200.1393938731492</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>12.13694123412316</v>
+        <v>433.5259775766373</v>
       </c>
       <c r="L14" t="n">
         <v>588.3020646166319</v>
       </c>
       <c r="M14" t="n">
-        <v>76.4435831397742</v>
+        <v>322.4489910323134</v>
       </c>
       <c r="N14" t="n">
-        <v>615.6369625131</v>
+        <v>81.46710539367712</v>
       </c>
       <c r="O14" t="n">
         <v>561.0229699341804</v>
       </c>
       <c r="P14" t="n">
-        <v>379.4230356682277</v>
+        <v>446.3378424257461</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>4.568678365613238</v>
+        <v>4.568678365613252</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>136.7494365488699</v>
       </c>
       <c r="K15" t="n">
-        <v>17.70622370763013</v>
+        <v>361.5110318239823</v>
       </c>
       <c r="L15" t="n">
-        <v>61.82543991778567</v>
+        <v>543.9178888122826</v>
       </c>
       <c r="M15" t="n">
-        <v>615.6369625131</v>
+        <v>88.03369084217152</v>
       </c>
       <c r="N15" t="n">
-        <v>434.8142487446997</v>
+        <v>102.1889574480026</v>
       </c>
       <c r="O15" t="n">
-        <v>587.2680038621141</v>
+        <v>484.8498732700205</v>
       </c>
       <c r="P15" t="n">
         <v>458.5271574732267</v>
@@ -35819,13 +35819,13 @@
         <v>222.6659521894888</v>
       </c>
       <c r="O16" t="n">
-        <v>194.6392046368099</v>
+        <v>194.63920463681</v>
       </c>
       <c r="P16" t="n">
         <v>145.0482968824902</v>
       </c>
       <c r="Q16" t="n">
-        <v>18.23547537719898</v>
+        <v>18.23547537719899</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>200.1393938731493</v>
       </c>
       <c r="K17" t="n">
         <v>433.5259775766373</v>
@@ -35892,19 +35892,19 @@
         <v>588.3020646166319</v>
       </c>
       <c r="M17" t="n">
-        <v>615.6369625131</v>
+        <v>248.586725754022</v>
       </c>
       <c r="N17" t="n">
-        <v>211.1861329014316</v>
+        <v>615.6369625130999</v>
       </c>
       <c r="O17" t="n">
-        <v>561.0229699341804</v>
+        <v>65.98273429261155</v>
       </c>
       <c r="P17" t="n">
-        <v>27.99952180281861</v>
+        <v>27.99952180281863</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>257.5002489158289</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>136.7494365488699</v>
       </c>
       <c r="K18" t="n">
         <v>361.5110318239823</v>
       </c>
       <c r="L18" t="n">
-        <v>543.9178888122826</v>
+        <v>441.4997582201889</v>
       </c>
       <c r="M18" t="n">
-        <v>615.6369625131</v>
+        <v>88.03369084217152</v>
       </c>
       <c r="N18" t="n">
-        <v>120.9380067935985</v>
+        <v>102.1889574480026</v>
       </c>
       <c r="O18" t="n">
-        <v>75.24698880236576</v>
+        <v>587.2680038621141</v>
       </c>
       <c r="P18" t="n">
         <v>458.5271574732267</v>
@@ -36056,13 +36056,13 @@
         <v>222.6659521894888</v>
       </c>
       <c r="O19" t="n">
-        <v>194.6392046368099</v>
+        <v>194.63920463681</v>
       </c>
       <c r="P19" t="n">
         <v>145.0482968824902</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.23547537719898</v>
+        <v>18.23547537719899</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>200.1393938731492</v>
+        <v>200.1393938731493</v>
       </c>
       <c r="K20" t="n">
-        <v>12.13694123412316</v>
+        <v>433.5259775766373</v>
       </c>
       <c r="L20" t="n">
-        <v>588.3020646166319</v>
+        <v>45.3424857010464</v>
       </c>
       <c r="M20" t="n">
-        <v>76.4435831397742</v>
+        <v>76.44358313977426</v>
       </c>
       <c r="N20" t="n">
-        <v>615.6369625131</v>
+        <v>417.3611277784369</v>
       </c>
       <c r="O20" t="n">
-        <v>498.6768415422754</v>
+        <v>561.0229699341804</v>
       </c>
       <c r="P20" t="n">
-        <v>446.337842425746</v>
+        <v>446.3378424257461</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>257.5002489158289</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>136.7494365488699</v>
       </c>
       <c r="K21" t="n">
-        <v>17.70622370763013</v>
+        <v>361.5110318239823</v>
       </c>
       <c r="L21" t="n">
         <v>543.9178888122826</v>
       </c>
       <c r="M21" t="n">
-        <v>214.6173929764458</v>
+        <v>88.03369084217152</v>
       </c>
       <c r="N21" t="n">
-        <v>615.6369625131</v>
+        <v>102.1889574480026</v>
       </c>
       <c r="O21" t="n">
-        <v>587.2680038621141</v>
+        <v>484.8498732700205</v>
       </c>
       <c r="P21" t="n">
         <v>458.5271574732267</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>261.8955931262436</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36293,13 +36293,13 @@
         <v>222.6659521894888</v>
       </c>
       <c r="O22" t="n">
-        <v>194.6392046368099</v>
+        <v>194.63920463681</v>
       </c>
       <c r="P22" t="n">
         <v>145.0482968824902</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.23547537719898</v>
+        <v>18.23547537719899</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>200.1393938731492</v>
+        <v>200.1393938731493</v>
       </c>
       <c r="K23" t="n">
         <v>433.5259775766373</v>
@@ -36366,7 +36366,7 @@
         <v>588.3020646166319</v>
       </c>
       <c r="M23" t="n">
-        <v>660.8111766804565</v>
+        <v>660.8111766804566</v>
       </c>
       <c r="N23" t="n">
         <v>650.0181071292565</v>
@@ -36375,13 +36375,13 @@
         <v>561.0229699341804</v>
       </c>
       <c r="P23" t="n">
-        <v>446.337842425746</v>
+        <v>446.3378424257461</v>
       </c>
       <c r="Q23" t="n">
-        <v>257.5002489158288</v>
+        <v>257.5002489158289</v>
       </c>
       <c r="R23" t="n">
-        <v>4.568678365613238</v>
+        <v>4.568678365613252</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>34.33130595677579</v>
       </c>
       <c r="K24" t="n">
         <v>361.5110318239823</v>
@@ -36445,10 +36445,10 @@
         <v>543.9178888122826</v>
       </c>
       <c r="M24" t="n">
-        <v>88.0336908421715</v>
+        <v>88.03369084217152</v>
       </c>
       <c r="N24" t="n">
-        <v>398.4158565310219</v>
+        <v>102.1889574480026</v>
       </c>
       <c r="O24" t="n">
         <v>587.2680038621141</v>
@@ -36457,7 +36457,7 @@
         <v>458.5271574732267</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>261.8955931262436</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36530,13 +36530,13 @@
         <v>222.6659521894888</v>
       </c>
       <c r="O25" t="n">
-        <v>194.6392046368099</v>
+        <v>194.63920463681</v>
       </c>
       <c r="P25" t="n">
         <v>145.0482968824902</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.23547537719898</v>
+        <v>18.23547537719899</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>136.7494365488699</v>
       </c>
       <c r="K27" t="n">
-        <v>17.70622370763013</v>
+        <v>361.5110318239823</v>
       </c>
       <c r="L27" t="n">
-        <v>61.82543991778567</v>
+        <v>543.9178888122826</v>
       </c>
       <c r="M27" t="n">
-        <v>693.4502737171714</v>
+        <v>88.0336908421715</v>
       </c>
       <c r="N27" t="n">
-        <v>725.334044094622</v>
+        <v>102.1889574480025</v>
       </c>
       <c r="O27" t="n">
-        <v>587.2680038621141</v>
+        <v>484.8498732700203</v>
       </c>
       <c r="P27" t="n">
-        <v>352.0896440454759</v>
+        <v>458.5271574732267</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>261.8955931262436</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>257.5002489158288</v>
       </c>
       <c r="R29" t="n">
-        <v>4.568678365613879</v>
+        <v>4.568678365613238</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>136.7494365488699</v>
       </c>
       <c r="K30" t="n">
-        <v>361.5110318239823</v>
+        <v>259.0929012318882</v>
       </c>
       <c r="L30" t="n">
         <v>543.9178888122826</v>
       </c>
       <c r="M30" t="n">
-        <v>247.5111533763207</v>
+        <v>88.0336908421715</v>
       </c>
       <c r="N30" t="n">
         <v>102.1889574480025</v>
@@ -36931,7 +36931,7 @@
         <v>458.5271574732267</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>261.8955931262436</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>136.7494365488699</v>
       </c>
       <c r="K33" t="n">
-        <v>17.70622370763013</v>
+        <v>361.5110318239823</v>
       </c>
       <c r="L33" t="n">
         <v>543.9178888122826</v>
       </c>
       <c r="M33" t="n">
-        <v>693.4502737171714</v>
+        <v>88.0336908421715</v>
       </c>
       <c r="N33" t="n">
-        <v>550.8056810042926</v>
+        <v>102.1889574480025</v>
       </c>
       <c r="O33" t="n">
-        <v>587.2680038621141</v>
+        <v>484.8498732700203</v>
       </c>
       <c r="P33" t="n">
-        <v>44.52555824130833</v>
+        <v>458.5271574732267</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>261.8955931262436</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37308,19 +37308,19 @@
         <v>200.1393938731492</v>
       </c>
       <c r="K35" t="n">
-        <v>66.47574081755953</v>
+        <v>433.5259775766373</v>
       </c>
       <c r="L35" t="n">
         <v>588.3020646166319</v>
       </c>
       <c r="M35" t="n">
-        <v>615.6369625131</v>
+        <v>76.4435831397742</v>
       </c>
       <c r="N35" t="n">
-        <v>615.6369625131</v>
+        <v>292.7398694857795</v>
       </c>
       <c r="O35" t="n">
-        <v>65.98273429261153</v>
+        <v>561.0229699341804</v>
       </c>
       <c r="P35" t="n">
         <v>27.99952180281861</v>
@@ -37387,19 +37387,19 @@
         <v>136.7494365488699</v>
       </c>
       <c r="K36" t="n">
-        <v>17.70622370763013</v>
+        <v>361.5110318239823</v>
       </c>
       <c r="L36" t="n">
-        <v>61.82543991778567</v>
+        <v>543.9178888122826</v>
       </c>
       <c r="M36" t="n">
-        <v>615.6369625131</v>
+        <v>88.0336908421715</v>
       </c>
       <c r="N36" t="n">
-        <v>615.6369625131</v>
+        <v>102.1889574480025</v>
       </c>
       <c r="O36" t="n">
-        <v>269.6958535448442</v>
+        <v>484.8498732700205</v>
       </c>
       <c r="P36" t="n">
         <v>458.5271574732267</v>
@@ -37545,25 +37545,25 @@
         <v>200.1393938731492</v>
       </c>
       <c r="K38" t="n">
-        <v>433.5259775766373</v>
+        <v>187.3307995679581</v>
       </c>
       <c r="L38" t="n">
         <v>588.3020646166319</v>
       </c>
       <c r="M38" t="n">
-        <v>545.2165961477056</v>
+        <v>76.4435831397742</v>
       </c>
       <c r="N38" t="n">
-        <v>81.46710539367712</v>
+        <v>615.6369625131</v>
       </c>
       <c r="O38" t="n">
-        <v>561.0229699341804</v>
+        <v>65.98273429261153</v>
       </c>
       <c r="P38" t="n">
-        <v>27.99952180281861</v>
+        <v>446.337842425746</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>257.5002489158288</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>136.7494365488699</v>
       </c>
       <c r="K39" t="n">
-        <v>361.5110318239823</v>
+        <v>17.70622370763013</v>
       </c>
       <c r="L39" t="n">
-        <v>61.82543991778567</v>
+        <v>543.9178888122826</v>
       </c>
       <c r="M39" t="n">
         <v>615.6369625131</v>
       </c>
       <c r="N39" t="n">
-        <v>352.905033754591</v>
+        <v>327.9933783610815</v>
       </c>
       <c r="O39" t="n">
-        <v>587.2680038621141</v>
+        <v>75.24698880236576</v>
       </c>
       <c r="P39" t="n">
         <v>458.5271574732267</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>261.8955931262436</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>200.1393938731492</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>12.13694123412316</v>
+        <v>29.07514796496897</v>
       </c>
       <c r="L41" t="n">
-        <v>45.34248570104637</v>
+        <v>588.3020646166319</v>
       </c>
       <c r="M41" t="n">
         <v>615.6369625131</v>
@@ -37797,7 +37797,7 @@
         <v>561.0229699341804</v>
       </c>
       <c r="P41" t="n">
-        <v>387.757913576101</v>
+        <v>27.99952180281861</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>136.7494365488699</v>
       </c>
       <c r="K42" t="n">
-        <v>17.70622370763013</v>
+        <v>361.5110318239823</v>
       </c>
       <c r="L42" t="n">
-        <v>61.82543991778567</v>
+        <v>543.9178888122826</v>
       </c>
       <c r="M42" t="n">
-        <v>615.6369625131</v>
+        <v>88.0336908421715</v>
       </c>
       <c r="N42" t="n">
-        <v>615.6369625131</v>
+        <v>102.1889574480025</v>
       </c>
       <c r="O42" t="n">
-        <v>587.2680038621141</v>
+        <v>484.849873270021</v>
       </c>
       <c r="P42" t="n">
-        <v>402.8506002821998</v>
+        <v>458.5271574732267</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>261.8955931262436</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>200.1393938731492</v>
       </c>
       <c r="K44" t="n">
-        <v>12.13694123412316</v>
+        <v>433.5259775766373</v>
       </c>
       <c r="L44" t="n">
-        <v>186.9019507245504</v>
+        <v>376.6678297201935</v>
       </c>
       <c r="M44" t="n">
-        <v>615.6369625131</v>
+        <v>76.4435831397742</v>
       </c>
       <c r="N44" t="n">
-        <v>615.6369625131</v>
+        <v>81.46710539367712</v>
       </c>
       <c r="O44" t="n">
         <v>561.0229699341804</v>
@@ -38037,10 +38037,10 @@
         <v>446.337842425746</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>257.5002489158288</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>4.568678365613238</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>136.7494365488699</v>
       </c>
       <c r="K45" t="n">
-        <v>17.70622370763013</v>
+        <v>361.5110318239823</v>
       </c>
       <c r="L45" t="n">
-        <v>142.8983192756288</v>
+        <v>543.9178888122826</v>
       </c>
       <c r="M45" t="n">
-        <v>615.6369625131</v>
+        <v>88.0336908421715</v>
       </c>
       <c r="N45" t="n">
-        <v>615.6369625131</v>
+        <v>102.1889574480025</v>
       </c>
       <c r="O45" t="n">
-        <v>587.2680038621141</v>
+        <v>484.8498732700205</v>
       </c>
       <c r="P45" t="n">
         <v>458.5271574732267</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>261.8955931262436</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
